--- a/data/experiments/sampling/combsampling/combsampling_creation_metrics.xlsx
+++ b/data/experiments/sampling/combsampling/combsampling_creation_metrics.xlsx
@@ -1,13 +1,33 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="imputed" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="train_test_split" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="test_data" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="Tomeklinks" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="NearMiss" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet name="Neighbourhood Cleaning" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet name="ClusterCentroid_8" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet name="ClusterCentroid_4" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet name="ClusterCentroid_2" sheetId="10" state="visible" r:id="rId10"/>
+    <sheet name="Smote_Tomek_1" sheetId="11" state="visible" r:id="rId11"/>
+    <sheet name="Smote_Tomek_2" sheetId="12" state="visible" r:id="rId12"/>
+    <sheet name="Smote_Tomek_4" sheetId="13" state="visible" r:id="rId13"/>
+    <sheet name="Smote_Tomek_8" sheetId="14" state="visible" r:id="rId14"/>
+    <sheet name="Smote_NC_1" sheetId="15" state="visible" r:id="rId15"/>
+    <sheet name="Smote_NC_2" sheetId="16" state="visible" r:id="rId16"/>
+    <sheet name="Smote_NC_4" sheetId="17" state="visible" r:id="rId17"/>
+    <sheet name="Smote_NC_8" sheetId="18" state="visible" r:id="rId18"/>
+    <sheet name="Smote_CC_1_8" sheetId="19" state="visible" r:id="rId19"/>
+    <sheet name="Smote_CC_2_8" sheetId="20" state="visible" r:id="rId20"/>
+    <sheet name="Smote_CC_4_8" sheetId="21" state="visible" r:id="rId21"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -17,13 +37,16 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="1">
+  <fonts count="2">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
       <color theme="1"/>
       <sz val="11"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -34,7 +57,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -42,12 +65,21 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -423,4 +455,7704 @@
   <sheetData/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:O7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>mean_fit_time</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>std_fit_time</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>mean_score_time</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>std_score_time</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>param_C</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>params</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>split0_test_score</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>split1_test_score</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>split2_test_score</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>split3_test_score</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>split4_test_score</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>mean_test_score</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>std_test_score</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
+        <is>
+          <t>rank_test_score</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="n">
+        <v>0.00769047737121582</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0.001812520250649235</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.002577352523803711</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0.0005804617755182375</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>{'C': 0.001}</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>0.6571428571428571</v>
+      </c>
+      <c r="I2" t="n">
+        <v>0.6764705882352942</v>
+      </c>
+      <c r="J2" t="n">
+        <v>0.6764705882352942</v>
+      </c>
+      <c r="K2" t="n">
+        <v>0.6764705882352942</v>
+      </c>
+      <c r="L2" t="n">
+        <v>0.6470588235294118</v>
+      </c>
+      <c r="M2" t="n">
+        <v>0.6667226890756303</v>
+      </c>
+      <c r="N2" t="n">
+        <v>0.0123572278619508</v>
+      </c>
+      <c r="O2" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="n">
+        <v>0.007064390182495117</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0.001124843457429085</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.002482986450195312</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0.0005118442465232847</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>{'C': 0.01}</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>0.6571428571428571</v>
+      </c>
+      <c r="I3" t="n">
+        <v>0.6764705882352942</v>
+      </c>
+      <c r="J3" t="n">
+        <v>0.6764705882352942</v>
+      </c>
+      <c r="K3" t="n">
+        <v>0.6764705882352942</v>
+      </c>
+      <c r="L3" t="n">
+        <v>0.6470588235294118</v>
+      </c>
+      <c r="M3" t="n">
+        <v>0.6667226890756303</v>
+      </c>
+      <c r="N3" t="n">
+        <v>0.0123572278619508</v>
+      </c>
+      <c r="O3" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="n">
+        <v>0.009309959411621094</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0.001179170081143776</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.002383852005004883</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0.000372126620578055</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>{'C': 0.1}</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>0.7714285714285715</v>
+      </c>
+      <c r="I4" t="n">
+        <v>0.7352941176470589</v>
+      </c>
+      <c r="J4" t="n">
+        <v>0.7058823529411765</v>
+      </c>
+      <c r="K4" t="n">
+        <v>0.6764705882352942</v>
+      </c>
+      <c r="L4" t="n">
+        <v>0.7352941176470589</v>
+      </c>
+      <c r="M4" t="n">
+        <v>0.724873949579832</v>
+      </c>
+      <c r="N4" t="n">
+        <v>0.03190002743858673</v>
+      </c>
+      <c r="O4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="n">
+        <v>0.01871752738952637</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0.003965912991968626</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.002168703079223633</v>
+      </c>
+      <c r="E5" t="n">
+        <v>9.604255604902803e-05</v>
+      </c>
+      <c r="F5" t="n">
+        <v>1</v>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>{'C': 1}</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>0.7714285714285715</v>
+      </c>
+      <c r="I5" t="n">
+        <v>0.6470588235294118</v>
+      </c>
+      <c r="J5" t="n">
+        <v>0.7352941176470589</v>
+      </c>
+      <c r="K5" t="n">
+        <v>0.7647058823529411</v>
+      </c>
+      <c r="L5" t="n">
+        <v>0.6176470588235294</v>
+      </c>
+      <c r="M5" t="n">
+        <v>0.7072268907563026</v>
+      </c>
+      <c r="N5" t="n">
+        <v>0.06302095223712691</v>
+      </c>
+      <c r="O5" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="n">
+        <v>0.0382232666015625</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0.003721079197931645</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.00247197151184082</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0.0004485886564987369</v>
+      </c>
+      <c r="F6" t="n">
+        <v>10</v>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>{'C': 10}</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>0.7714285714285715</v>
+      </c>
+      <c r="I6" t="n">
+        <v>0.6176470588235294</v>
+      </c>
+      <c r="J6" t="n">
+        <v>0.7058823529411765</v>
+      </c>
+      <c r="K6" t="n">
+        <v>0.7058823529411765</v>
+      </c>
+      <c r="L6" t="n">
+        <v>0.6176470588235294</v>
+      </c>
+      <c r="M6" t="n">
+        <v>0.6836974789915967</v>
+      </c>
+      <c r="N6" t="n">
+        <v>0.05900236919524326</v>
+      </c>
+      <c r="O6" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="n">
+        <v>0.1936201095581055</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0.0336018094095449</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0.00289921760559082</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0.0004699242508135203</v>
+      </c>
+      <c r="F7" t="n">
+        <v>1000</v>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>{'C': 1000}</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>0.7428571428571429</v>
+      </c>
+      <c r="I7" t="n">
+        <v>0.5882352941176471</v>
+      </c>
+      <c r="J7" t="n">
+        <v>0.6764705882352942</v>
+      </c>
+      <c r="K7" t="n">
+        <v>0.7647058823529411</v>
+      </c>
+      <c r="L7" t="n">
+        <v>0.5588235294117647</v>
+      </c>
+      <c r="M7" t="n">
+        <v>0.6662184873949579</v>
+      </c>
+      <c r="N7" t="n">
+        <v>0.08160074936204929</v>
+      </c>
+      <c r="O7" t="n">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:O7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>mean_fit_time</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>std_fit_time</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>mean_score_time</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>std_score_time</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>param_C</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>params</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>split0_test_score</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>split1_test_score</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>split2_test_score</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>split3_test_score</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>split4_test_score</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>mean_test_score</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>std_test_score</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
+        <is>
+          <t>rank_test_score</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="n">
+        <v>0.01219916343688965</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0.001858003822030144</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.003331470489501953</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0.0005882707843721892</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>{'C': 0.001}</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>0.7558139534883721</v>
+      </c>
+      <c r="I2" t="n">
+        <v>0.7276264591439688</v>
+      </c>
+      <c r="J2" t="n">
+        <v>0.7237354085603113</v>
+      </c>
+      <c r="K2" t="n">
+        <v>0.7042801556420234</v>
+      </c>
+      <c r="L2" t="n">
+        <v>0.8249027237354085</v>
+      </c>
+      <c r="M2" t="n">
+        <v>0.747271740114017</v>
+      </c>
+      <c r="N2" t="n">
+        <v>0.04216090921735068</v>
+      </c>
+      <c r="O2" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="n">
+        <v>0.01442575454711914</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0.001053677740456028</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.00338287353515625</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0.0005184800293986797</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>{'C': 0.01}</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>0.7751937984496124</v>
+      </c>
+      <c r="I3" t="n">
+        <v>0.7509727626459144</v>
+      </c>
+      <c r="J3" t="n">
+        <v>0.7354085603112841</v>
+      </c>
+      <c r="K3" t="n">
+        <v>0.7276264591439688</v>
+      </c>
+      <c r="L3" t="n">
+        <v>0.8482490272373541</v>
+      </c>
+      <c r="M3" t="n">
+        <v>0.7674901215576269</v>
+      </c>
+      <c r="N3" t="n">
+        <v>0.04352587456374529</v>
+      </c>
+      <c r="O3" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="n">
+        <v>0.01628799438476563</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0.001630804060360443</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.002254009246826172</v>
+      </c>
+      <c r="E4" t="n">
+        <v>6.938234632634601e-05</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>{'C': 0.1}</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>0.8178294573643411</v>
+      </c>
+      <c r="I4" t="n">
+        <v>0.8171206225680934</v>
+      </c>
+      <c r="J4" t="n">
+        <v>0.7859922178988327</v>
+      </c>
+      <c r="K4" t="n">
+        <v>0.7782101167315175</v>
+      </c>
+      <c r="L4" t="n">
+        <v>0.8443579766536965</v>
+      </c>
+      <c r="M4" t="n">
+        <v>0.8087020782432962</v>
+      </c>
+      <c r="N4" t="n">
+        <v>0.02396256039458837</v>
+      </c>
+      <c r="O4" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="n">
+        <v>0.03553376197814941</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0.003428951490041274</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.002474832534790039</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0.0003575696071215454</v>
+      </c>
+      <c r="F5" t="n">
+        <v>1</v>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>{'C': 1}</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>0.8410852713178295</v>
+      </c>
+      <c r="I5" t="n">
+        <v>0.867704280155642</v>
+      </c>
+      <c r="J5" t="n">
+        <v>0.8715953307392996</v>
+      </c>
+      <c r="K5" t="n">
+        <v>0.8404669260700389</v>
+      </c>
+      <c r="L5" t="n">
+        <v>0.8482490272373541</v>
+      </c>
+      <c r="M5" t="n">
+        <v>0.8538201671040329</v>
+      </c>
+      <c r="N5" t="n">
+        <v>0.01326837784886963</v>
+      </c>
+      <c r="O5" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="n">
+        <v>0.08877182006835938</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0.005506540230440169</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.002441787719726563</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0.0003583192690474216</v>
+      </c>
+      <c r="F6" t="n">
+        <v>10</v>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>{'C': 10}</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>0.8333333333333334</v>
+      </c>
+      <c r="I6" t="n">
+        <v>0.8871595330739299</v>
+      </c>
+      <c r="J6" t="n">
+        <v>0.8754863813229572</v>
+      </c>
+      <c r="K6" t="n">
+        <v>0.8715953307392996</v>
+      </c>
+      <c r="L6" t="n">
+        <v>0.8832684824902723</v>
+      </c>
+      <c r="M6" t="n">
+        <v>0.8701686121919586</v>
+      </c>
+      <c r="N6" t="n">
+        <v>0.01922212244881747</v>
+      </c>
+      <c r="O6" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="n">
+        <v>0.3814610958099365</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0.006942601771220995</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0.002914619445800781</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0.0006125604512352284</v>
+      </c>
+      <c r="F7" t="n">
+        <v>1000</v>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>{'C': 1000}</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>0.8604651162790697</v>
+      </c>
+      <c r="I7" t="n">
+        <v>0.8832684824902723</v>
+      </c>
+      <c r="J7" t="n">
+        <v>0.8910505836575876</v>
+      </c>
+      <c r="K7" t="n">
+        <v>0.8754863813229572</v>
+      </c>
+      <c r="L7" t="n">
+        <v>0.8988326848249028</v>
+      </c>
+      <c r="M7" t="n">
+        <v>0.881820649714958</v>
+      </c>
+      <c r="N7" t="n">
+        <v>0.01321271359945273</v>
+      </c>
+      <c r="O7" t="n">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:O7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>mean_fit_time</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>std_fit_time</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>mean_score_time</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>std_score_time</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>param_C</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>params</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>split0_test_score</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>split1_test_score</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>split2_test_score</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>split3_test_score</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>split4_test_score</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>mean_test_score</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>std_test_score</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
+        <is>
+          <t>rank_test_score</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="n">
+        <v>0.009595632553100586</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0.001524137427048779</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.002552318572998047</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0.0005398960670411785</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>{'C': 0.001}</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>0.6683937823834197</v>
+      </c>
+      <c r="I2" t="n">
+        <v>0.6683937823834197</v>
+      </c>
+      <c r="J2" t="n">
+        <v>0.6683937823834197</v>
+      </c>
+      <c r="K2" t="n">
+        <v>0.6632124352331606</v>
+      </c>
+      <c r="L2" t="n">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M2" t="n">
+        <v>0.6670120898100173</v>
+      </c>
+      <c r="N2" t="n">
+        <v>0.002014145732243637</v>
+      </c>
+      <c r="O2" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="n">
+        <v>0.01011457443237305</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0.001232131942781313</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.002489614486694336</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0.0004339074928938664</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>{'C': 0.01}</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>0.7098445595854922</v>
+      </c>
+      <c r="I3" t="n">
+        <v>0.7098445595854922</v>
+      </c>
+      <c r="J3" t="n">
+        <v>0.7098445595854922</v>
+      </c>
+      <c r="K3" t="n">
+        <v>0.7202072538860104</v>
+      </c>
+      <c r="L3" t="n">
+        <v>0.7291666666666666</v>
+      </c>
+      <c r="M3" t="n">
+        <v>0.7157815198618307</v>
+      </c>
+      <c r="N3" t="n">
+        <v>0.007803739726672784</v>
+      </c>
+      <c r="O3" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="n">
+        <v>0.02067646980285644</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0.003016061260415841</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.002897787094116211</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0.0005380288363035402</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>{'C': 0.1}</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>0.7875647668393783</v>
+      </c>
+      <c r="I4" t="n">
+        <v>0.7979274611398963</v>
+      </c>
+      <c r="J4" t="n">
+        <v>0.7979274611398963</v>
+      </c>
+      <c r="K4" t="n">
+        <v>0.7616580310880829</v>
+      </c>
+      <c r="L4" t="n">
+        <v>0.8020833333333334</v>
+      </c>
+      <c r="M4" t="n">
+        <v>0.7894322107081174</v>
+      </c>
+      <c r="N4" t="n">
+        <v>0.01469205134516185</v>
+      </c>
+      <c r="O4" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="n">
+        <v>0.03987803459167481</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0.004465194026094745</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.002327203750610352</v>
+      </c>
+      <c r="E5" t="n">
+        <v>2.215677103391833e-05</v>
+      </c>
+      <c r="F5" t="n">
+        <v>1</v>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>{'C': 1}</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>0.8082901554404145</v>
+      </c>
+      <c r="I5" t="n">
+        <v>0.8393782383419689</v>
+      </c>
+      <c r="J5" t="n">
+        <v>0.8031088082901554</v>
+      </c>
+      <c r="K5" t="n">
+        <v>0.7823834196891192</v>
+      </c>
+      <c r="L5" t="n">
+        <v>0.8229166666666666</v>
+      </c>
+      <c r="M5" t="n">
+        <v>0.8112154576856649</v>
+      </c>
+      <c r="N5" t="n">
+        <v>0.01916049100933587</v>
+      </c>
+      <c r="O5" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="n">
+        <v>0.08124713897705078</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0.007727996310069651</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.002501773834228516</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0.0004138995535072629</v>
+      </c>
+      <c r="F6" t="n">
+        <v>10</v>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>{'C': 10}</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>0.8134715025906736</v>
+      </c>
+      <c r="I6" t="n">
+        <v>0.8186528497409327</v>
+      </c>
+      <c r="J6" t="n">
+        <v>0.844559585492228</v>
+      </c>
+      <c r="K6" t="n">
+        <v>0.8134715025906736</v>
+      </c>
+      <c r="L6" t="n">
+        <v>0.8645833333333334</v>
+      </c>
+      <c r="M6" t="n">
+        <v>0.8309477547495682</v>
+      </c>
+      <c r="N6" t="n">
+        <v>0.02038939700454807</v>
+      </c>
+      <c r="O6" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="n">
+        <v>0.3505575656890869</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0.005785744898535887</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0.003306150436401367</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0.000418390682942846</v>
+      </c>
+      <c r="F7" t="n">
+        <v>1000</v>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>{'C': 1000}</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>0.8341968911917098</v>
+      </c>
+      <c r="I7" t="n">
+        <v>0.8290155440414507</v>
+      </c>
+      <c r="J7" t="n">
+        <v>0.8601036269430051</v>
+      </c>
+      <c r="K7" t="n">
+        <v>0.8290155440414507</v>
+      </c>
+      <c r="L7" t="n">
+        <v>0.8802083333333334</v>
+      </c>
+      <c r="M7" t="n">
+        <v>0.84650798791019</v>
+      </c>
+      <c r="N7" t="n">
+        <v>0.0204161160349541</v>
+      </c>
+      <c r="O7" t="n">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:O7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>mean_fit_time</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>std_fit_time</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>mean_score_time</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>std_score_time</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>param_C</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>params</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>split0_test_score</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>split1_test_score</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>split2_test_score</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>split3_test_score</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>split4_test_score</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>mean_test_score</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>std_test_score</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
+        <is>
+          <t>rank_test_score</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="n">
+        <v>0.008740377426147462</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0.002117372865882333</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.002687835693359375</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0.0005714991433006391</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>{'C': 0.001}</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>0.8012422360248447</v>
+      </c>
+      <c r="I2" t="n">
+        <v>0.8012422360248447</v>
+      </c>
+      <c r="J2" t="n">
+        <v>0.8012422360248447</v>
+      </c>
+      <c r="K2" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="L2" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="M2" t="n">
+        <v>0.8007453416149067</v>
+      </c>
+      <c r="N2" t="n">
+        <v>0.0006085688801945359</v>
+      </c>
+      <c r="O2" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="n">
+        <v>0.01057977676391602</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0.00145535851277441</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.002418088912963867</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0.0004669263227899058</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>{'C': 0.01}</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>0.8012422360248447</v>
+      </c>
+      <c r="I3" t="n">
+        <v>0.8012422360248447</v>
+      </c>
+      <c r="J3" t="n">
+        <v>0.8012422360248447</v>
+      </c>
+      <c r="K3" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="L3" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="M3" t="n">
+        <v>0.8007453416149067</v>
+      </c>
+      <c r="N3" t="n">
+        <v>0.0006085688801945359</v>
+      </c>
+      <c r="O3" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="n">
+        <v>0.01698136329650879</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0.002360547774596899</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.002658557891845703</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0.0005532522397746495</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>{'C': 0.1}</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>0.84472049689441</v>
+      </c>
+      <c r="I4" t="n">
+        <v>0.8385093167701864</v>
+      </c>
+      <c r="J4" t="n">
+        <v>0.8509316770186336</v>
+      </c>
+      <c r="K4" t="n">
+        <v>0.8125</v>
+      </c>
+      <c r="L4" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="M4" t="n">
+        <v>0.839332298136646</v>
+      </c>
+      <c r="N4" t="n">
+        <v>0.01412818219708304</v>
+      </c>
+      <c r="O4" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="n">
+        <v>0.034735107421875</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0.003981539690530175</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.002498960494995117</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0.0004344243660694824</v>
+      </c>
+      <c r="F5" t="n">
+        <v>1</v>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>{'C': 1}</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>0.8260869565217391</v>
+      </c>
+      <c r="I5" t="n">
+        <v>0.8633540372670807</v>
+      </c>
+      <c r="J5" t="n">
+        <v>0.8819875776397516</v>
+      </c>
+      <c r="K5" t="n">
+        <v>0.81875</v>
+      </c>
+      <c r="L5" t="n">
+        <v>0.88125</v>
+      </c>
+      <c r="M5" t="n">
+        <v>0.8542857142857143</v>
+      </c>
+      <c r="N5" t="n">
+        <v>0.02696166667062343</v>
+      </c>
+      <c r="O5" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="n">
+        <v>0.06966061592102051</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0.008069918797450471</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.002301406860351562</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0.0001939259496631238</v>
+      </c>
+      <c r="F6" t="n">
+        <v>10</v>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>{'C': 10}</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>0.8509316770186336</v>
+      </c>
+      <c r="I6" t="n">
+        <v>0.8385093167701864</v>
+      </c>
+      <c r="J6" t="n">
+        <v>0.8695652173913043</v>
+      </c>
+      <c r="K6" t="n">
+        <v>0.8375</v>
+      </c>
+      <c r="L6" t="n">
+        <v>0.88125</v>
+      </c>
+      <c r="M6" t="n">
+        <v>0.8555512422360249</v>
+      </c>
+      <c r="N6" t="n">
+        <v>0.01728833481228793</v>
+      </c>
+      <c r="O6" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="n">
+        <v>0.3132061004638672</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0.03426845395679299</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0.002915859222412109</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0.0008964603124548456</v>
+      </c>
+      <c r="F7" t="n">
+        <v>1000</v>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>{'C': 1000}</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>0.8322981366459627</v>
+      </c>
+      <c r="I7" t="n">
+        <v>0.8322981366459627</v>
+      </c>
+      <c r="J7" t="n">
+        <v>0.8633540372670807</v>
+      </c>
+      <c r="K7" t="n">
+        <v>0.83125</v>
+      </c>
+      <c r="L7" t="n">
+        <v>0.88125</v>
+      </c>
+      <c r="M7" t="n">
+        <v>0.8480900621118013</v>
+      </c>
+      <c r="N7" t="n">
+        <v>0.02056661338216239</v>
+      </c>
+      <c r="O7" t="n">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:O7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>mean_fit_time</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>std_fit_time</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>mean_score_time</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>std_score_time</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>param_C</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>params</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>split0_test_score</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>split1_test_score</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>split2_test_score</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>split3_test_score</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>split4_test_score</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>mean_test_score</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>std_test_score</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
+        <is>
+          <t>rank_test_score</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="n">
+        <v>0.008705711364746094</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0.002028804423617201</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.002816343307495117</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0.0005619030660753199</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>{'C': 0.001}</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>0.8896551724137931</v>
+      </c>
+      <c r="I2" t="n">
+        <v>0.8896551724137931</v>
+      </c>
+      <c r="J2" t="n">
+        <v>0.8896551724137931</v>
+      </c>
+      <c r="K2" t="n">
+        <v>0.8888888888888888</v>
+      </c>
+      <c r="L2" t="n">
+        <v>0.8888888888888888</v>
+      </c>
+      <c r="M2" t="n">
+        <v>0.8893486590038314</v>
+      </c>
+      <c r="N2" t="n">
+        <v>0.0003754007268633473</v>
+      </c>
+      <c r="O2" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="n">
+        <v>0.009560585021972656</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0.001863535307468779</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.002490663528442383</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0.0005035419491168122</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>{'C': 0.01}</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>0.8896551724137931</v>
+      </c>
+      <c r="I3" t="n">
+        <v>0.8896551724137931</v>
+      </c>
+      <c r="J3" t="n">
+        <v>0.8896551724137931</v>
+      </c>
+      <c r="K3" t="n">
+        <v>0.8888888888888888</v>
+      </c>
+      <c r="L3" t="n">
+        <v>0.8888888888888888</v>
+      </c>
+      <c r="M3" t="n">
+        <v>0.8893486590038314</v>
+      </c>
+      <c r="N3" t="n">
+        <v>0.0003754007268633473</v>
+      </c>
+      <c r="O3" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="n">
+        <v>0.01189408302307129</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0.002121054977686923</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.002454471588134765</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0.0004434007022403673</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>{'C': 0.1}</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>0.8896551724137931</v>
+      </c>
+      <c r="I4" t="n">
+        <v>0.8896551724137931</v>
+      </c>
+      <c r="J4" t="n">
+        <v>0.8896551724137931</v>
+      </c>
+      <c r="K4" t="n">
+        <v>0.8819444444444444</v>
+      </c>
+      <c r="L4" t="n">
+        <v>0.8888888888888888</v>
+      </c>
+      <c r="M4" t="n">
+        <v>0.8879597701149425</v>
+      </c>
+      <c r="N4" t="n">
+        <v>0.003022269725987291</v>
+      </c>
+      <c r="O4" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="n">
+        <v>0.02725052833557129</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0.00258538648227099</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.002525997161865234</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0.0005070709836861277</v>
+      </c>
+      <c r="F5" t="n">
+        <v>1</v>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>{'C': 1}</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>0.9103448275862069</v>
+      </c>
+      <c r="I5" t="n">
+        <v>0.8896551724137931</v>
+      </c>
+      <c r="J5" t="n">
+        <v>0.9103448275862069</v>
+      </c>
+      <c r="K5" t="n">
+        <v>0.8819444444444444</v>
+      </c>
+      <c r="L5" t="n">
+        <v>0.9166666666666666</v>
+      </c>
+      <c r="M5" t="n">
+        <v>0.9017911877394637</v>
+      </c>
+      <c r="N5" t="n">
+        <v>0.01348173186183845</v>
+      </c>
+      <c r="O5" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="n">
+        <v>0.05723118782043457</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0.00657730193353</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.002344036102294922</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0.0002583083970254409</v>
+      </c>
+      <c r="F6" t="n">
+        <v>10</v>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>{'C': 10}</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>0.8896551724137931</v>
+      </c>
+      <c r="I6" t="n">
+        <v>0.8827586206896552</v>
+      </c>
+      <c r="J6" t="n">
+        <v>0.8896551724137931</v>
+      </c>
+      <c r="K6" t="n">
+        <v>0.875</v>
+      </c>
+      <c r="L6" t="n">
+        <v>0.9375</v>
+      </c>
+      <c r="M6" t="n">
+        <v>0.8949137931034482</v>
+      </c>
+      <c r="N6" t="n">
+        <v>0.02196906267061583</v>
+      </c>
+      <c r="O6" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="n">
+        <v>0.2822649955749512</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0.02350739251725832</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0.002245187759399414</v>
+      </c>
+      <c r="E7" t="n">
+        <v>3.203266961307187e-05</v>
+      </c>
+      <c r="F7" t="n">
+        <v>1000</v>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>{'C': 1000}</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>0.8689655172413793</v>
+      </c>
+      <c r="I7" t="n">
+        <v>0.8620689655172413</v>
+      </c>
+      <c r="J7" t="n">
+        <v>0.896551724137931</v>
+      </c>
+      <c r="K7" t="n">
+        <v>0.8819444444444444</v>
+      </c>
+      <c r="L7" t="n">
+        <v>0.9097222222222222</v>
+      </c>
+      <c r="M7" t="n">
+        <v>0.8838505747126437</v>
+      </c>
+      <c r="N7" t="n">
+        <v>0.01749455977866711</v>
+      </c>
+      <c r="O7" t="n">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:O7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>mean_fit_time</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>std_fit_time</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>mean_score_time</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>std_score_time</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>param_C</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>params</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>split0_test_score</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>split1_test_score</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>split2_test_score</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>split3_test_score</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>split4_test_score</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>mean_test_score</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>std_test_score</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
+        <is>
+          <t>rank_test_score</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="n">
+        <v>0.009934568405151367</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0.003774342724372039</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.002429294586181641</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0.0002226740388086716</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>{'C': 0.001}</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>0.7702702702702703</v>
+      </c>
+      <c r="I2" t="n">
+        <v>0.7792792792792793</v>
+      </c>
+      <c r="J2" t="n">
+        <v>0.8153153153153153</v>
+      </c>
+      <c r="K2" t="n">
+        <v>0.7601809954751131</v>
+      </c>
+      <c r="L2" t="n">
+        <v>0.8642533936651584</v>
+      </c>
+      <c r="M2" t="n">
+        <v>0.7978598508010273</v>
+      </c>
+      <c r="N2" t="n">
+        <v>0.03804974245923322</v>
+      </c>
+      <c r="O2" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="n">
+        <v>0.008930778503417969</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0.000361748939195594</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.002200984954833984</v>
+      </c>
+      <c r="E3" t="n">
+        <v>4.572308936722588e-05</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>{'C': 0.01}</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>0.8153153153153153</v>
+      </c>
+      <c r="I3" t="n">
+        <v>0.8018018018018018</v>
+      </c>
+      <c r="J3" t="n">
+        <v>0.8243243243243243</v>
+      </c>
+      <c r="K3" t="n">
+        <v>0.7601809954751131</v>
+      </c>
+      <c r="L3" t="n">
+        <v>0.8642533936651584</v>
+      </c>
+      <c r="M3" t="n">
+        <v>0.8131751661163428</v>
+      </c>
+      <c r="N3" t="n">
+        <v>0.03369155631505347</v>
+      </c>
+      <c r="O3" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="n">
+        <v>0.01447978019714355</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0.001868596645650075</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.002522182464599609</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0.0003266703591763332</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>{'C': 0.1}</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>0.8063063063063063</v>
+      </c>
+      <c r="I4" t="n">
+        <v>0.8468468468468469</v>
+      </c>
+      <c r="J4" t="n">
+        <v>0.8693693693693694</v>
+      </c>
+      <c r="K4" t="n">
+        <v>0.8099547511312217</v>
+      </c>
+      <c r="L4" t="n">
+        <v>0.8733031674208145</v>
+      </c>
+      <c r="M4" t="n">
+        <v>0.8411560882149118</v>
+      </c>
+      <c r="N4" t="n">
+        <v>0.02845993465792013</v>
+      </c>
+      <c r="O4" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="n">
+        <v>0.03319954872131348</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0.005146109138135258</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.002341032028198242</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0.0001517928541223622</v>
+      </c>
+      <c r="F5" t="n">
+        <v>1</v>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>{'C': 1}</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>0.8693693693693694</v>
+      </c>
+      <c r="I5" t="n">
+        <v>0.9009009009009009</v>
+      </c>
+      <c r="J5" t="n">
+        <v>0.8693693693693694</v>
+      </c>
+      <c r="K5" t="n">
+        <v>0.8687782805429864</v>
+      </c>
+      <c r="L5" t="n">
+        <v>0.9095022624434389</v>
+      </c>
+      <c r="M5" t="n">
+        <v>0.883584036525213</v>
+      </c>
+      <c r="N5" t="n">
+        <v>0.01786030325309312</v>
+      </c>
+      <c r="O5" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="n">
+        <v>0.07770676612854004</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0.002031417492041623</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.002647829055786133</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0.000373037373652873</v>
+      </c>
+      <c r="F6" t="n">
+        <v>10</v>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>{'C': 10}</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>0.9009009009009009</v>
+      </c>
+      <c r="I6" t="n">
+        <v>0.918918918918919</v>
+      </c>
+      <c r="J6" t="n">
+        <v>0.8918918918918919</v>
+      </c>
+      <c r="K6" t="n">
+        <v>0.9004524886877828</v>
+      </c>
+      <c r="L6" t="n">
+        <v>0.918552036199095</v>
+      </c>
+      <c r="M6" t="n">
+        <v>0.906143247319718</v>
+      </c>
+      <c r="N6" t="n">
+        <v>0.01077185116473151</v>
+      </c>
+      <c r="O6" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="n">
+        <v>0.4102033138275146</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0.0409037342840389</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0.003761720657348633</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0.001427516276374683</v>
+      </c>
+      <c r="F7" t="n">
+        <v>1000</v>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>{'C': 1000}</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>0.9054054054054054</v>
+      </c>
+      <c r="I7" t="n">
+        <v>0.9279279279279279</v>
+      </c>
+      <c r="J7" t="n">
+        <v>0.9099099099099099</v>
+      </c>
+      <c r="K7" t="n">
+        <v>0.9140271493212669</v>
+      </c>
+      <c r="L7" t="n">
+        <v>0.9276018099547512</v>
+      </c>
+      <c r="M7" t="n">
+        <v>0.9169744405038521</v>
+      </c>
+      <c r="N7" t="n">
+        <v>0.009223411073264276</v>
+      </c>
+      <c r="O7" t="n">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:O7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>mean_fit_time</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>std_fit_time</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>mean_score_time</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>std_score_time</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>param_C</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>params</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>split0_test_score</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>split1_test_score</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>split2_test_score</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>split3_test_score</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>split4_test_score</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>mean_test_score</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>std_test_score</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
+        <is>
+          <t>rank_test_score</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="n">
+        <v>0.009004974365234375</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0.00159943301373539</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.002539396286010742</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0.000372243378794768</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>{'C': 0.001}</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>0.6646706586826348</v>
+      </c>
+      <c r="I2" t="n">
+        <v>0.6686746987951807</v>
+      </c>
+      <c r="J2" t="n">
+        <v>0.6686746987951807</v>
+      </c>
+      <c r="K2" t="n">
+        <v>0.6686746987951807</v>
+      </c>
+      <c r="L2" t="n">
+        <v>0.6626506024096386</v>
+      </c>
+      <c r="M2" t="n">
+        <v>0.666669071495563</v>
+      </c>
+      <c r="N2" t="n">
+        <v>0.00253808471727488</v>
+      </c>
+      <c r="O2" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="n">
+        <v>0.01002621650695801</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0.00221101181452938</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.002304553985595703</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0.0003304383453962125</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>{'C': 0.01}</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>0.7365269461077845</v>
+      </c>
+      <c r="I3" t="n">
+        <v>0.7108433734939759</v>
+      </c>
+      <c r="J3" t="n">
+        <v>0.7409638554216867</v>
+      </c>
+      <c r="K3" t="n">
+        <v>0.7228915662650602</v>
+      </c>
+      <c r="L3" t="n">
+        <v>0.7228915662650602</v>
+      </c>
+      <c r="M3" t="n">
+        <v>0.7268234615107135</v>
+      </c>
+      <c r="N3" t="n">
+        <v>0.01077396089422406</v>
+      </c>
+      <c r="O3" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="n">
+        <v>0.01822357177734375</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0.002803572692342033</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.002679824829101562</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0.0005560017776305933</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>{'C': 0.1}</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>0.8143712574850299</v>
+      </c>
+      <c r="I4" t="n">
+        <v>0.8012048192771084</v>
+      </c>
+      <c r="J4" t="n">
+        <v>0.8433734939759037</v>
+      </c>
+      <c r="K4" t="n">
+        <v>0.8012048192771084</v>
+      </c>
+      <c r="L4" t="n">
+        <v>0.8554216867469879</v>
+      </c>
+      <c r="M4" t="n">
+        <v>0.8231152153524277</v>
+      </c>
+      <c r="N4" t="n">
+        <v>0.02231902174511904</v>
+      </c>
+      <c r="O4" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="n">
+        <v>0.03344793319702148</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0.002586954230391662</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.002558660507202148</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0.0004801148156210302</v>
+      </c>
+      <c r="F5" t="n">
+        <v>1</v>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>{'C': 1}</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>0.8622754491017964</v>
+      </c>
+      <c r="I5" t="n">
+        <v>0.8614457831325302</v>
+      </c>
+      <c r="J5" t="n">
+        <v>0.8493975903614458</v>
+      </c>
+      <c r="K5" t="n">
+        <v>0.8554216867469879</v>
+      </c>
+      <c r="L5" t="n">
+        <v>0.8855421686746988</v>
+      </c>
+      <c r="M5" t="n">
+        <v>0.8628165356034918</v>
+      </c>
+      <c r="N5" t="n">
+        <v>0.01227499911564696</v>
+      </c>
+      <c r="O5" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="n">
+        <v>0.06729459762573242</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0.009542922932394048</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.00227961540222168</v>
+      </c>
+      <c r="E6" t="n">
+        <v>6.410802056523063e-05</v>
+      </c>
+      <c r="F6" t="n">
+        <v>10</v>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>{'C': 10}</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>0.8802395209580839</v>
+      </c>
+      <c r="I6" t="n">
+        <v>0.9036144578313253</v>
+      </c>
+      <c r="J6" t="n">
+        <v>0.8674698795180723</v>
+      </c>
+      <c r="K6" t="n">
+        <v>0.8674698795180723</v>
+      </c>
+      <c r="L6" t="n">
+        <v>0.8855421686746988</v>
+      </c>
+      <c r="M6" t="n">
+        <v>0.8808671813000506</v>
+      </c>
+      <c r="N6" t="n">
+        <v>0.01340644206434412</v>
+      </c>
+      <c r="O6" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="n">
+        <v>0.3290802478790283</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0.02050466776219055</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0.003163003921508789</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0.0005717645701690608</v>
+      </c>
+      <c r="F7" t="n">
+        <v>1000</v>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>{'C': 1000}</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>0.8682634730538922</v>
+      </c>
+      <c r="I7" t="n">
+        <v>0.9096385542168675</v>
+      </c>
+      <c r="J7" t="n">
+        <v>0.8674698795180723</v>
+      </c>
+      <c r="K7" t="n">
+        <v>0.8554216867469879</v>
+      </c>
+      <c r="L7" t="n">
+        <v>0.8975903614457831</v>
+      </c>
+      <c r="M7" t="n">
+        <v>0.8796767909963206</v>
+      </c>
+      <c r="N7" t="n">
+        <v>0.0204263842026469</v>
+      </c>
+      <c r="O7" t="n">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:O7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>mean_fit_time</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>std_fit_time</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>mean_score_time</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>std_score_time</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>param_C</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>params</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>split0_test_score</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>split1_test_score</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>split2_test_score</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>split3_test_score</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>split4_test_score</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>mean_test_score</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>std_test_score</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
+        <is>
+          <t>rank_test_score</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="n">
+        <v>0.00846409797668457</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0.002654494616777823</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.002493000030517578</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0.0006635566180522492</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>{'C': 0.001}</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>0.7985611510791367</v>
+      </c>
+      <c r="I2" t="n">
+        <v>0.7985611510791367</v>
+      </c>
+      <c r="J2" t="n">
+        <v>0.8043478260869565</v>
+      </c>
+      <c r="K2" t="n">
+        <v>0.8043478260869565</v>
+      </c>
+      <c r="L2" t="n">
+        <v>0.7971014492753623</v>
+      </c>
+      <c r="M2" t="n">
+        <v>0.8005838807215099</v>
+      </c>
+      <c r="N2" t="n">
+        <v>0.003119127077165096</v>
+      </c>
+      <c r="O2" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="n">
+        <v>0.01035423278808594</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0.001620403206597989</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.002856588363647461</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0.0008361500838295995</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>{'C': 0.01}</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>0.7985611510791367</v>
+      </c>
+      <c r="I3" t="n">
+        <v>0.7985611510791367</v>
+      </c>
+      <c r="J3" t="n">
+        <v>0.8043478260869565</v>
+      </c>
+      <c r="K3" t="n">
+        <v>0.8043478260869565</v>
+      </c>
+      <c r="L3" t="n">
+        <v>0.7971014492753623</v>
+      </c>
+      <c r="M3" t="n">
+        <v>0.8005838807215099</v>
+      </c>
+      <c r="N3" t="n">
+        <v>0.003119127077165096</v>
+      </c>
+      <c r="O3" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="n">
+        <v>0.01500716209411621</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0.0034644353581626</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.002412033081054687</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0.0005295970683192092</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>{'C': 0.1}</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>0.8561151079136691</v>
+      </c>
+      <c r="I4" t="n">
+        <v>0.8345323741007195</v>
+      </c>
+      <c r="J4" t="n">
+        <v>0.8623188405797102</v>
+      </c>
+      <c r="K4" t="n">
+        <v>0.8333333333333334</v>
+      </c>
+      <c r="L4" t="n">
+        <v>0.8695652173913043</v>
+      </c>
+      <c r="M4" t="n">
+        <v>0.8511729746637473</v>
+      </c>
+      <c r="N4" t="n">
+        <v>0.01471116576293011</v>
+      </c>
+      <c r="O4" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="n">
+        <v>0.03187732696533203</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0.004600371648638215</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.002302074432373047</v>
+      </c>
+      <c r="E5" t="n">
+        <v>7.584868079594519e-05</v>
+      </c>
+      <c r="F5" t="n">
+        <v>1</v>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>{'C': 1}</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>0.8848920863309353</v>
+      </c>
+      <c r="I5" t="n">
+        <v>0.8776978417266187</v>
+      </c>
+      <c r="J5" t="n">
+        <v>0.8768115942028986</v>
+      </c>
+      <c r="K5" t="n">
+        <v>0.855072463768116</v>
+      </c>
+      <c r="L5" t="n">
+        <v>0.8768115942028986</v>
+      </c>
+      <c r="M5" t="n">
+        <v>0.8742571160462933</v>
+      </c>
+      <c r="N5" t="n">
+        <v>0.01006024638368455</v>
+      </c>
+      <c r="O5" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="n">
+        <v>0.05779185295104981</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0.00320773781956946</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.002766227722167969</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0.0005644841015952508</v>
+      </c>
+      <c r="F6" t="n">
+        <v>10</v>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>{'C': 10}</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>0.8776978417266187</v>
+      </c>
+      <c r="I6" t="n">
+        <v>0.8705035971223022</v>
+      </c>
+      <c r="J6" t="n">
+        <v>0.9057971014492754</v>
+      </c>
+      <c r="K6" t="n">
+        <v>0.855072463768116</v>
+      </c>
+      <c r="L6" t="n">
+        <v>0.8840579710144928</v>
+      </c>
+      <c r="M6" t="n">
+        <v>0.8786257950161611</v>
+      </c>
+      <c r="N6" t="n">
+        <v>0.01666960730295568</v>
+      </c>
+      <c r="O6" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="n">
+        <v>0.2992939949035645</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0.0205759661069913</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0.002464389801025391</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0.0002799911540211856</v>
+      </c>
+      <c r="F7" t="n">
+        <v>1000</v>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>{'C': 1000}</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>0.8561151079136691</v>
+      </c>
+      <c r="I7" t="n">
+        <v>0.8273381294964028</v>
+      </c>
+      <c r="J7" t="n">
+        <v>0.8768115942028986</v>
+      </c>
+      <c r="K7" t="n">
+        <v>0.8623188405797102</v>
+      </c>
+      <c r="L7" t="n">
+        <v>0.8840579710144928</v>
+      </c>
+      <c r="M7" t="n">
+        <v>0.8613283286414347</v>
+      </c>
+      <c r="N7" t="n">
+        <v>0.01969700777798053</v>
+      </c>
+      <c r="O7" t="n">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:O7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>mean_fit_time</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>std_fit_time</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>mean_score_time</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>std_score_time</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>param_C</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>params</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>split0_test_score</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>split1_test_score</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>split2_test_score</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>split3_test_score</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>split4_test_score</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>mean_test_score</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>std_test_score</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
+        <is>
+          <t>rank_test_score</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="n">
+        <v>0.009119939804077149</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0.001866082972632855</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.002506780624389649</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0.0006408166544572709</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>{'C': 0.001}</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>0.888</v>
+      </c>
+      <c r="I2" t="n">
+        <v>0.888</v>
+      </c>
+      <c r="J2" t="n">
+        <v>0.888</v>
+      </c>
+      <c r="K2" t="n">
+        <v>0.8951612903225806</v>
+      </c>
+      <c r="L2" t="n">
+        <v>0.8870967741935484</v>
+      </c>
+      <c r="M2" t="n">
+        <v>0.8892516129032257</v>
+      </c>
+      <c r="N2" t="n">
+        <v>0.002975473799048496</v>
+      </c>
+      <c r="O2" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="n">
+        <v>0.009055328369140626</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0.002317402658984638</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.00234227180480957</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0.0003672767566978407</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>{'C': 0.01}</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>0.888</v>
+      </c>
+      <c r="I3" t="n">
+        <v>0.888</v>
+      </c>
+      <c r="J3" t="n">
+        <v>0.888</v>
+      </c>
+      <c r="K3" t="n">
+        <v>0.8951612903225806</v>
+      </c>
+      <c r="L3" t="n">
+        <v>0.8870967741935484</v>
+      </c>
+      <c r="M3" t="n">
+        <v>0.8892516129032257</v>
+      </c>
+      <c r="N3" t="n">
+        <v>0.002975473799048496</v>
+      </c>
+      <c r="O3" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="n">
+        <v>0.01234445571899414</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0.002251720267912159</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.002598762512207031</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0.0005164611791915494</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>{'C': 0.1}</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>0.888</v>
+      </c>
+      <c r="I4" t="n">
+        <v>0.888</v>
+      </c>
+      <c r="J4" t="n">
+        <v>0.888</v>
+      </c>
+      <c r="K4" t="n">
+        <v>0.9032258064516129</v>
+      </c>
+      <c r="L4" t="n">
+        <v>0.8870967741935484</v>
+      </c>
+      <c r="M4" t="n">
+        <v>0.8908645161290323</v>
+      </c>
+      <c r="N4" t="n">
+        <v>0.006190536902272481</v>
+      </c>
+      <c r="O4" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="n">
+        <v>0.02469983100891113</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0.00331529013356985</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.002664899826049805</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0.0004978863990672072</v>
+      </c>
+      <c r="F5" t="n">
+        <v>1</v>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>{'C': 1}</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>0.9360000000000001</v>
+      </c>
+      <c r="I5" t="n">
+        <v>0.896</v>
+      </c>
+      <c r="J5" t="n">
+        <v>0.912</v>
+      </c>
+      <c r="K5" t="n">
+        <v>0.8951612903225806</v>
+      </c>
+      <c r="L5" t="n">
+        <v>0.9193548387096774</v>
+      </c>
+      <c r="M5" t="n">
+        <v>0.9117032258064516</v>
+      </c>
+      <c r="N5" t="n">
+        <v>0.01529179794161567</v>
+      </c>
+      <c r="O5" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="n">
+        <v>0.04925832748413086</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0.004664265496566965</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.003165388107299805</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0.0004466548092736217</v>
+      </c>
+      <c r="F6" t="n">
+        <v>10</v>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>{'C': 10}</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>0.928</v>
+      </c>
+      <c r="I6" t="n">
+        <v>0.904</v>
+      </c>
+      <c r="J6" t="n">
+        <v>0.888</v>
+      </c>
+      <c r="K6" t="n">
+        <v>0.8951612903225806</v>
+      </c>
+      <c r="L6" t="n">
+        <v>0.9193548387096774</v>
+      </c>
+      <c r="M6" t="n">
+        <v>0.9069032258064516</v>
+      </c>
+      <c r="N6" t="n">
+        <v>0.01485765970902337</v>
+      </c>
+      <c r="O6" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="n">
+        <v>0.2478273868560791</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0.05693769726797196</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0.002335357666015625</v>
+      </c>
+      <c r="E7" t="n">
+        <v>4.336896212247853e-05</v>
+      </c>
+      <c r="F7" t="n">
+        <v>1000</v>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>{'C': 1000}</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>0.888</v>
+      </c>
+      <c r="I7" t="n">
+        <v>0.896</v>
+      </c>
+      <c r="J7" t="n">
+        <v>0.88</v>
+      </c>
+      <c r="K7" t="n">
+        <v>0.8629032258064516</v>
+      </c>
+      <c r="L7" t="n">
+        <v>0.9032258064516129</v>
+      </c>
+      <c r="M7" t="n">
+        <v>0.8860258064516129</v>
+      </c>
+      <c r="N7" t="n">
+        <v>0.01392972401874112</v>
+      </c>
+      <c r="O7" t="n">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:O7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>mean_fit_time</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>std_fit_time</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>mean_score_time</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>std_score_time</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>param_C</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>params</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>split0_test_score</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>split1_test_score</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>split2_test_score</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>split3_test_score</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>split4_test_score</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>mean_test_score</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>std_test_score</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
+        <is>
+          <t>rank_test_score</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="n">
+        <v>0.0100532054901123</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0.001572772155525918</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.002581024169921875</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0.0004825057831321439</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>{'C': 0.001}</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>0.7759562841530054</v>
+      </c>
+      <c r="I2" t="n">
+        <v>0.825136612021858</v>
+      </c>
+      <c r="J2" t="n">
+        <v>0.8021978021978022</v>
+      </c>
+      <c r="K2" t="n">
+        <v>0.7802197802197802</v>
+      </c>
+      <c r="L2" t="n">
+        <v>0.7032967032967034</v>
+      </c>
+      <c r="M2" t="n">
+        <v>0.7773614363778298</v>
+      </c>
+      <c r="N2" t="n">
+        <v>0.04097570437133079</v>
+      </c>
+      <c r="O2" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="n">
+        <v>0.008789443969726562</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0.001604194540650119</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.002525520324707031</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0.0006065946377524788</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>{'C': 0.01}</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>0.7704918032786885</v>
+      </c>
+      <c r="I3" t="n">
+        <v>0.825136612021858</v>
+      </c>
+      <c r="J3" t="n">
+        <v>0.7967032967032966</v>
+      </c>
+      <c r="K3" t="n">
+        <v>0.7802197802197802</v>
+      </c>
+      <c r="L3" t="n">
+        <v>0.7087912087912088</v>
+      </c>
+      <c r="M3" t="n">
+        <v>0.7762685402029664</v>
+      </c>
+      <c r="N3" t="n">
+        <v>0.03849114432733608</v>
+      </c>
+      <c r="O3" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="n">
+        <v>0.01336550712585449</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0.001743101760445615</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.002686262130737305</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0.000616647852042662</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>{'C': 0.1}</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>0.7814207650273224</v>
+      </c>
+      <c r="I4" t="n">
+        <v>0.8743169398907104</v>
+      </c>
+      <c r="J4" t="n">
+        <v>0.8406593406593407</v>
+      </c>
+      <c r="K4" t="n">
+        <v>0.8351648351648352</v>
+      </c>
+      <c r="L4" t="n">
+        <v>0.7747252747252747</v>
+      </c>
+      <c r="M4" t="n">
+        <v>0.8212574310934967</v>
+      </c>
+      <c r="N4" t="n">
+        <v>0.03778190835876559</v>
+      </c>
+      <c r="O4" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="n">
+        <v>0.02873320579528809</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0.005764049412561586</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.002374982833862305</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0.0001441615716808335</v>
+      </c>
+      <c r="F5" t="n">
+        <v>1</v>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>{'C': 1}</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>0.7923497267759563</v>
+      </c>
+      <c r="I5" t="n">
+        <v>0.9234972677595629</v>
+      </c>
+      <c r="J5" t="n">
+        <v>0.8736263736263736</v>
+      </c>
+      <c r="K5" t="n">
+        <v>0.8846153846153846</v>
+      </c>
+      <c r="L5" t="n">
+        <v>0.8241758241758241</v>
+      </c>
+      <c r="M5" t="n">
+        <v>0.8596529153906204</v>
+      </c>
+      <c r="N5" t="n">
+        <v>0.04622299629629684</v>
+      </c>
+      <c r="O5" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="n">
+        <v>0.06818623542785644</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0.00861413565187422</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.002588272094726562</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0.0005189087344605751</v>
+      </c>
+      <c r="F6" t="n">
+        <v>10</v>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>{'C': 10}</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>0.819672131147541</v>
+      </c>
+      <c r="I6" t="n">
+        <v>0.8852459016393442</v>
+      </c>
+      <c r="J6" t="n">
+        <v>0.8681318681318682</v>
+      </c>
+      <c r="K6" t="n">
+        <v>0.8901098901098901</v>
+      </c>
+      <c r="L6" t="n">
+        <v>0.8516483516483516</v>
+      </c>
+      <c r="M6" t="n">
+        <v>0.8629616285353989</v>
+      </c>
+      <c r="N6" t="n">
+        <v>0.02554337146811073</v>
+      </c>
+      <c r="O6" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="n">
+        <v>0.3496565341949463</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0.004431979355424446</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0.002784442901611328</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0.0001227117427620039</v>
+      </c>
+      <c r="F7" t="n">
+        <v>1000</v>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>{'C': 1000}</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>0.8524590163934426</v>
+      </c>
+      <c r="I7" t="n">
+        <v>0.8524590163934426</v>
+      </c>
+      <c r="J7" t="n">
+        <v>0.8846153846153846</v>
+      </c>
+      <c r="K7" t="n">
+        <v>0.8956043956043956</v>
+      </c>
+      <c r="L7" t="n">
+        <v>0.8626373626373627</v>
+      </c>
+      <c r="M7" t="n">
+        <v>0.8695550351288055</v>
+      </c>
+      <c r="N7" t="n">
+        <v>0.0175373043181885</v>
+      </c>
+      <c r="O7" t="n">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:O7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>mean_fit_time</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>std_fit_time</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>mean_score_time</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>std_score_time</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>param_C</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>params</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>split0_test_score</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>split1_test_score</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>split2_test_score</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>split3_test_score</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>split4_test_score</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>mean_test_score</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>std_test_score</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
+        <is>
+          <t>rank_test_score</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="n">
+        <v>0.01041646003723145</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0.002680212220262241</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.002291536331176758</v>
+      </c>
+      <c r="E2" t="n">
+        <v>9.542887615619884e-05</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>{'C': 0.001}</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>0.9278846153846154</v>
+      </c>
+      <c r="I2" t="n">
+        <v>0.9230769230769231</v>
+      </c>
+      <c r="J2" t="n">
+        <v>0.927536231884058</v>
+      </c>
+      <c r="K2" t="n">
+        <v>0.927536231884058</v>
+      </c>
+      <c r="L2" t="n">
+        <v>0.927536231884058</v>
+      </c>
+      <c r="M2" t="n">
+        <v>0.9267140468227424</v>
+      </c>
+      <c r="N2" t="n">
+        <v>0.001823560513149997</v>
+      </c>
+      <c r="O2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="n">
+        <v>0.01134223937988281</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0.002128379400693159</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.002595281600952148</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0.0004990039825977491</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>{'C': 0.01}</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>0.9278846153846154</v>
+      </c>
+      <c r="I3" t="n">
+        <v>0.9230769230769231</v>
+      </c>
+      <c r="J3" t="n">
+        <v>0.927536231884058</v>
+      </c>
+      <c r="K3" t="n">
+        <v>0.927536231884058</v>
+      </c>
+      <c r="L3" t="n">
+        <v>0.927536231884058</v>
+      </c>
+      <c r="M3" t="n">
+        <v>0.9267140468227424</v>
+      </c>
+      <c r="N3" t="n">
+        <v>0.001823560513149997</v>
+      </c>
+      <c r="O3" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="n">
+        <v>0.01564340591430664</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0.002793699650657843</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.00252232551574707</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0.0005537467769310305</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>{'C': 0.1}</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>0.9278846153846154</v>
+      </c>
+      <c r="I4" t="n">
+        <v>0.9230769230769231</v>
+      </c>
+      <c r="J4" t="n">
+        <v>0.927536231884058</v>
+      </c>
+      <c r="K4" t="n">
+        <v>0.927536231884058</v>
+      </c>
+      <c r="L4" t="n">
+        <v>0.927536231884058</v>
+      </c>
+      <c r="M4" t="n">
+        <v>0.9267140468227424</v>
+      </c>
+      <c r="N4" t="n">
+        <v>0.001823560513149997</v>
+      </c>
+      <c r="O4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="n">
+        <v>0.03100852966308594</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0.004322961204374959</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.002849006652832031</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0.0006612337098848029</v>
+      </c>
+      <c r="F5" t="n">
+        <v>1</v>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>{'C': 1}</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>0.9375</v>
+      </c>
+      <c r="I5" t="n">
+        <v>0.9134615384615384</v>
+      </c>
+      <c r="J5" t="n">
+        <v>0.9371980676328503</v>
+      </c>
+      <c r="K5" t="n">
+        <v>0.9130434782608695</v>
+      </c>
+      <c r="L5" t="n">
+        <v>0.927536231884058</v>
+      </c>
+      <c r="M5" t="n">
+        <v>0.9257478632478632</v>
+      </c>
+      <c r="N5" t="n">
+        <v>0.01081455811145917</v>
+      </c>
+      <c r="O5" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="n">
+        <v>0.07926707267761231</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0.005722417869795848</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.003593349456787109</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0.0006143659509895982</v>
+      </c>
+      <c r="F6" t="n">
+        <v>10</v>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>{'C': 10}</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>0.9326923076923077</v>
+      </c>
+      <c r="I6" t="n">
+        <v>0.9134615384615384</v>
+      </c>
+      <c r="J6" t="n">
+        <v>0.9516908212560387</v>
+      </c>
+      <c r="K6" t="n">
+        <v>0.9130434782608695</v>
+      </c>
+      <c r="L6" t="n">
+        <v>0.9033816425120773</v>
+      </c>
+      <c r="M6" t="n">
+        <v>0.9228539576365664</v>
+      </c>
+      <c r="N6" t="n">
+        <v>0.01727421161775646</v>
+      </c>
+      <c r="O6" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="n">
+        <v>0.2948392868041992</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0.02550582586925549</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0.00254054069519043</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0.0003959385521805021</v>
+      </c>
+      <c r="F7" t="n">
+        <v>1000</v>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>{'C': 1000}</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>0.9278846153846154</v>
+      </c>
+      <c r="I7" t="n">
+        <v>0.9038461538461539</v>
+      </c>
+      <c r="J7" t="n">
+        <v>0.9371980676328503</v>
+      </c>
+      <c r="K7" t="n">
+        <v>0.9082125603864735</v>
+      </c>
+      <c r="L7" t="n">
+        <v>0.8985507246376812</v>
+      </c>
+      <c r="M7" t="n">
+        <v>0.9151384243775549</v>
+      </c>
+      <c r="N7" t="n">
+        <v>0.01483056299792347</v>
+      </c>
+      <c r="O7" t="n">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:O7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>mean_fit_time</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>std_fit_time</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>mean_score_time</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>std_score_time</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>param_C</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>params</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>split0_test_score</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>split1_test_score</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>split2_test_score</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>split3_test_score</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>split4_test_score</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>mean_test_score</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>std_test_score</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
+        <is>
+          <t>rank_test_score</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="n">
+        <v>0.008080673217773438</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0.001509891849831</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.0026641845703125</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0.0005312854608614976</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>{'C': 0.001}</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="I2" t="n">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="J2" t="n">
+        <v>0.6764705882352942</v>
+      </c>
+      <c r="K2" t="n">
+        <v>0.6617647058823529</v>
+      </c>
+      <c r="L2" t="n">
+        <v>0.6617647058823529</v>
+      </c>
+      <c r="M2" t="n">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="N2" t="n">
+        <v>0.005369828995148708</v>
+      </c>
+      <c r="O2" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="n">
+        <v>0.007513856887817383</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0.001241712970878164</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.002414846420288086</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0.0005750930638822944</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>{'C': 0.01}</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="I3" t="n">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="J3" t="n">
+        <v>0.6764705882352942</v>
+      </c>
+      <c r="K3" t="n">
+        <v>0.6617647058823529</v>
+      </c>
+      <c r="L3" t="n">
+        <v>0.6617647058823529</v>
+      </c>
+      <c r="M3" t="n">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="N3" t="n">
+        <v>0.005369828995148708</v>
+      </c>
+      <c r="O3" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="n">
+        <v>0.01274361610412598</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0.001906085899313266</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.002724456787109375</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0.000657059827618121</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>{'C': 0.1}</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>0.7391304347826086</v>
+      </c>
+      <c r="I4" t="n">
+        <v>0.7681159420289855</v>
+      </c>
+      <c r="J4" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="K4" t="n">
+        <v>0.7941176470588235</v>
+      </c>
+      <c r="L4" t="n">
+        <v>0.8088235294117647</v>
+      </c>
+      <c r="M4" t="n">
+        <v>0.7720375106564366</v>
+      </c>
+      <c r="N4" t="n">
+        <v>0.02617116664733767</v>
+      </c>
+      <c r="O4" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="n">
+        <v>0.02336535453796387</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0.00315806731263407</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.002525854110717774</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0.0005615910919847964</v>
+      </c>
+      <c r="F5" t="n">
+        <v>1</v>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>{'C': 1}</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>0.7536231884057971</v>
+      </c>
+      <c r="I5" t="n">
+        <v>0.7391304347826086</v>
+      </c>
+      <c r="J5" t="n">
+        <v>0.7941176470588235</v>
+      </c>
+      <c r="K5" t="n">
+        <v>0.8235294117647058</v>
+      </c>
+      <c r="L5" t="n">
+        <v>0.8529411764705882</v>
+      </c>
+      <c r="M5" t="n">
+        <v>0.7926683716965047</v>
+      </c>
+      <c r="N5" t="n">
+        <v>0.04237487985989574</v>
+      </c>
+      <c r="O5" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="n">
+        <v>0.04909920692443848</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0.003859049487606573</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.002965736389160156</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0.000563020724834444</v>
+      </c>
+      <c r="F6" t="n">
+        <v>10</v>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>{'C': 10}</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>0.7536231884057971</v>
+      </c>
+      <c r="I6" t="n">
+        <v>0.7246376811594203</v>
+      </c>
+      <c r="J6" t="n">
+        <v>0.7794117647058824</v>
+      </c>
+      <c r="K6" t="n">
+        <v>0.8676470588235294</v>
+      </c>
+      <c r="L6" t="n">
+        <v>0.8823529411764706</v>
+      </c>
+      <c r="M6" t="n">
+        <v>0.8015345268542198</v>
+      </c>
+      <c r="N6" t="n">
+        <v>0.0626107352005341</v>
+      </c>
+      <c r="O6" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="n">
+        <v>0.2379948139190674</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0.02649680748745807</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0.002558994293212891</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0.0003430712427659224</v>
+      </c>
+      <c r="F7" t="n">
+        <v>1000</v>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>{'C': 1000}</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>0.7681159420289855</v>
+      </c>
+      <c r="I7" t="n">
+        <v>0.6811594202898551</v>
+      </c>
+      <c r="J7" t="n">
+        <v>0.7794117647058824</v>
+      </c>
+      <c r="K7" t="n">
+        <v>0.8382352941176471</v>
+      </c>
+      <c r="L7" t="n">
+        <v>0.8382352941176471</v>
+      </c>
+      <c r="M7" t="n">
+        <v>0.7810315430520035</v>
+      </c>
+      <c r="N7" t="n">
+        <v>0.05777268491017918</v>
+      </c>
+      <c r="O7" t="n">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:O7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>mean_fit_time</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>std_fit_time</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>mean_score_time</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>std_score_time</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>param_C</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>params</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>split0_test_score</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>split1_test_score</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>split2_test_score</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>split3_test_score</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>split4_test_score</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>mean_test_score</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>std_test_score</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
+        <is>
+          <t>rank_test_score</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="n">
+        <v>0.008832502365112304</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0.001545865577859397</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.002501678466796875</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0.0005085920943240774</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>{'C': 0.001}</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>0.8070175438596491</v>
+      </c>
+      <c r="I2" t="n">
+        <v>0.7982456140350878</v>
+      </c>
+      <c r="J2" t="n">
+        <v>0.7982456140350878</v>
+      </c>
+      <c r="K2" t="n">
+        <v>0.7982456140350878</v>
+      </c>
+      <c r="L2" t="n">
+        <v>0.7982456140350878</v>
+      </c>
+      <c r="M2" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="N2" t="n">
+        <v>0.003508771929824528</v>
+      </c>
+      <c r="O2" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="n">
+        <v>0.00953359603881836</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0.001811669645378136</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.002416610717773438</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0.00058678521686597</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>{'C': 0.01}</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>0.8070175438596491</v>
+      </c>
+      <c r="I3" t="n">
+        <v>0.7982456140350878</v>
+      </c>
+      <c r="J3" t="n">
+        <v>0.7982456140350878</v>
+      </c>
+      <c r="K3" t="n">
+        <v>0.7982456140350878</v>
+      </c>
+      <c r="L3" t="n">
+        <v>0.7982456140350878</v>
+      </c>
+      <c r="M3" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="N3" t="n">
+        <v>0.003508771929824528</v>
+      </c>
+      <c r="O3" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="n">
+        <v>0.01438803672790527</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0.001021604314107708</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.002722787857055664</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0.0005302031548429603</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>{'C': 0.1}</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>0.8157894736842105</v>
+      </c>
+      <c r="I4" t="n">
+        <v>0.8157894736842105</v>
+      </c>
+      <c r="J4" t="n">
+        <v>0.8157894736842105</v>
+      </c>
+      <c r="K4" t="n">
+        <v>0.8070175438596491</v>
+      </c>
+      <c r="L4" t="n">
+        <v>0.8421052631578947</v>
+      </c>
+      <c r="M4" t="n">
+        <v>0.819298245614035</v>
+      </c>
+      <c r="N4" t="n">
+        <v>0.01189882453179871</v>
+      </c>
+      <c r="O4" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="n">
+        <v>0.02425594329833984</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0.002245457595950492</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.002922439575195313</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0.0005743633635375625</v>
+      </c>
+      <c r="F5" t="n">
+        <v>1</v>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>{'C': 1}</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>0.8333333333333334</v>
+      </c>
+      <c r="I5" t="n">
+        <v>0.8245614035087719</v>
+      </c>
+      <c r="J5" t="n">
+        <v>0.8421052631578947</v>
+      </c>
+      <c r="K5" t="n">
+        <v>0.868421052631579</v>
+      </c>
+      <c r="L5" t="n">
+        <v>0.868421052631579</v>
+      </c>
+      <c r="M5" t="n">
+        <v>0.8473684210526315</v>
+      </c>
+      <c r="N5" t="n">
+        <v>0.01806250901927545</v>
+      </c>
+      <c r="O5" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="n">
+        <v>0.0546682357788086</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0.003066017091209742</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.002529573440551758</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0.0004658465345411431</v>
+      </c>
+      <c r="F6" t="n">
+        <v>10</v>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>{'C': 10}</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>0.8421052631578947</v>
+      </c>
+      <c r="I6" t="n">
+        <v>0.8421052631578947</v>
+      </c>
+      <c r="J6" t="n">
+        <v>0.8157894736842105</v>
+      </c>
+      <c r="K6" t="n">
+        <v>0.868421052631579</v>
+      </c>
+      <c r="L6" t="n">
+        <v>0.8508771929824561</v>
+      </c>
+      <c r="M6" t="n">
+        <v>0.843859649122807</v>
+      </c>
+      <c r="N6" t="n">
+        <v>0.01700940300847836</v>
+      </c>
+      <c r="O6" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="n">
+        <v>0.2746780395507812</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0.01666427842205339</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0.002753973007202148</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0.0005646296826050881</v>
+      </c>
+      <c r="F7" t="n">
+        <v>1000</v>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>{'C': 1000}</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>0.8245614035087719</v>
+      </c>
+      <c r="I7" t="n">
+        <v>0.8157894736842105</v>
+      </c>
+      <c r="J7" t="n">
+        <v>0.8508771929824561</v>
+      </c>
+      <c r="K7" t="n">
+        <v>0.8421052631578947</v>
+      </c>
+      <c r="L7" t="n">
+        <v>0.8157894736842105</v>
+      </c>
+      <c r="M7" t="n">
+        <v>0.8298245614035087</v>
+      </c>
+      <c r="N7" t="n">
+        <v>0.01425269895550168</v>
+      </c>
+      <c r="O7" t="n">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:O7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>mean_fit_time</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>std_fit_time</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>mean_score_time</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>std_score_time</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>param_C</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>params</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>split0_test_score</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>split1_test_score</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>split2_test_score</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>split3_test_score</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>split4_test_score</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>mean_test_score</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>std_test_score</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
+        <is>
+          <t>rank_test_score</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="n">
+        <v>0.009285879135131837</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0.003129093173441145</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.002530145645141602</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0.000560039637567205</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>{'C': 0.001}</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>0.9241379310344827</v>
+      </c>
+      <c r="I2" t="n">
+        <v>0.9241379310344827</v>
+      </c>
+      <c r="J2" t="n">
+        <v>0.9241379310344827</v>
+      </c>
+      <c r="K2" t="n">
+        <v>0.9172413793103448</v>
+      </c>
+      <c r="L2" t="n">
+        <v>0.9172413793103448</v>
+      </c>
+      <c r="M2" t="n">
+        <v>0.9213793103448275</v>
+      </c>
+      <c r="N2" t="n">
+        <v>0.003378606541769908</v>
+      </c>
+      <c r="O2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="n">
+        <v>0.008633852005004883</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0.001387442313186362</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.002437114715576172</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0.0005743529401652205</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>{'C': 0.01}</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>0.9241379310344827</v>
+      </c>
+      <c r="I3" t="n">
+        <v>0.9241379310344827</v>
+      </c>
+      <c r="J3" t="n">
+        <v>0.9241379310344827</v>
+      </c>
+      <c r="K3" t="n">
+        <v>0.9172413793103448</v>
+      </c>
+      <c r="L3" t="n">
+        <v>0.9172413793103448</v>
+      </c>
+      <c r="M3" t="n">
+        <v>0.9213793103448275</v>
+      </c>
+      <c r="N3" t="n">
+        <v>0.003378606541769908</v>
+      </c>
+      <c r="O3" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="n">
+        <v>0.01232523918151856</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0.00268789950577785</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.002281856536865234</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0.0002239496261228323</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>{'C': 0.1}</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>0.9241379310344827</v>
+      </c>
+      <c r="I4" t="n">
+        <v>0.9241379310344827</v>
+      </c>
+      <c r="J4" t="n">
+        <v>0.9241379310344827</v>
+      </c>
+      <c r="K4" t="n">
+        <v>0.9172413793103448</v>
+      </c>
+      <c r="L4" t="n">
+        <v>0.9172413793103448</v>
+      </c>
+      <c r="M4" t="n">
+        <v>0.9213793103448275</v>
+      </c>
+      <c r="N4" t="n">
+        <v>0.003378606541769908</v>
+      </c>
+      <c r="O4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="n">
+        <v>0.02404594421386719</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0.002303813723282663</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.00272517204284668</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0.0005413970204613975</v>
+      </c>
+      <c r="F5" t="n">
+        <v>1</v>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>{'C': 1}</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>0.9103448275862069</v>
+      </c>
+      <c r="I5" t="n">
+        <v>0.9241379310344827</v>
+      </c>
+      <c r="J5" t="n">
+        <v>0.9310344827586207</v>
+      </c>
+      <c r="K5" t="n">
+        <v>0.903448275862069</v>
+      </c>
+      <c r="L5" t="n">
+        <v>0.9103448275862069</v>
+      </c>
+      <c r="M5" t="n">
+        <v>0.9158620689655173</v>
+      </c>
+      <c r="N5" t="n">
+        <v>0.01013581962530967</v>
+      </c>
+      <c r="O5" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="n">
+        <v>0.05631341934204102</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0.003919875979380365</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.002586126327514648</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0.0003841576647941639</v>
+      </c>
+      <c r="F6" t="n">
+        <v>10</v>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>{'C': 10}</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>0.9103448275862069</v>
+      </c>
+      <c r="I6" t="n">
+        <v>0.903448275862069</v>
+      </c>
+      <c r="J6" t="n">
+        <v>0.9103448275862069</v>
+      </c>
+      <c r="K6" t="n">
+        <v>0.8827586206896552</v>
+      </c>
+      <c r="L6" t="n">
+        <v>0.9172413793103448</v>
+      </c>
+      <c r="M6" t="n">
+        <v>0.9048275862068966</v>
+      </c>
+      <c r="N6" t="n">
+        <v>0.01186527623040362</v>
+      </c>
+      <c r="O6" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="n">
+        <v>0.2875834465026855</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0.03023451511729806</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0.002759552001953125</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0.0005687634109655095</v>
+      </c>
+      <c r="F7" t="n">
+        <v>1000</v>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>{'C': 1000}</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>0.9103448275862069</v>
+      </c>
+      <c r="I7" t="n">
+        <v>0.8620689655172413</v>
+      </c>
+      <c r="J7" t="n">
+        <v>0.903448275862069</v>
+      </c>
+      <c r="K7" t="n">
+        <v>0.8827586206896552</v>
+      </c>
+      <c r="L7" t="n">
+        <v>0.9103448275862069</v>
+      </c>
+      <c r="M7" t="n">
+        <v>0.8937931034482759</v>
+      </c>
+      <c r="N7" t="n">
+        <v>0.01881128509929087</v>
+      </c>
+      <c r="O7" t="n">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:O7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>mean_fit_time</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>std_fit_time</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>mean_score_time</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>std_score_time</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>param_C</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>params</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>split0_test_score</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>split1_test_score</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>split2_test_score</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>split3_test_score</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>split4_test_score</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>mean_test_score</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>std_test_score</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
+        <is>
+          <t>rank_test_score</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="n">
+        <v>0.009219694137573241</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0.002206648675558371</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.002725028991699219</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0.0006183666038489765</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>{'C': 0.001}</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>0.9365079365079365</v>
+      </c>
+      <c r="I2" t="n">
+        <v>0.9365079365079365</v>
+      </c>
+      <c r="J2" t="n">
+        <v>0.9516129032258065</v>
+      </c>
+      <c r="K2" t="n">
+        <v>0.9354838709677419</v>
+      </c>
+      <c r="L2" t="n">
+        <v>0.9354838709677419</v>
+      </c>
+      <c r="M2" t="n">
+        <v>0.9391193036354327</v>
+      </c>
+      <c r="N2" t="n">
+        <v>0.006263565256886062</v>
+      </c>
+      <c r="O2" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="n">
+        <v>0.008335685729980469</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0.001968174668457339</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.002420520782470703</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0.0004114044391009483</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>{'C': 0.01}</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>0.9365079365079365</v>
+      </c>
+      <c r="I3" t="n">
+        <v>0.9365079365079365</v>
+      </c>
+      <c r="J3" t="n">
+        <v>0.9516129032258065</v>
+      </c>
+      <c r="K3" t="n">
+        <v>0.9354838709677419</v>
+      </c>
+      <c r="L3" t="n">
+        <v>0.9354838709677419</v>
+      </c>
+      <c r="M3" t="n">
+        <v>0.9391193036354327</v>
+      </c>
+      <c r="N3" t="n">
+        <v>0.006263565256886062</v>
+      </c>
+      <c r="O3" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="n">
+        <v>0.00969557762145996</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0.002071520947037327</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.002356815338134766</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0.000415396366738876</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>{'C': 0.1}</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>0.9365079365079365</v>
+      </c>
+      <c r="I4" t="n">
+        <v>0.9365079365079365</v>
+      </c>
+      <c r="J4" t="n">
+        <v>0.9516129032258065</v>
+      </c>
+      <c r="K4" t="n">
+        <v>0.9354838709677419</v>
+      </c>
+      <c r="L4" t="n">
+        <v>0.9354838709677419</v>
+      </c>
+      <c r="M4" t="n">
+        <v>0.9391193036354327</v>
+      </c>
+      <c r="N4" t="n">
+        <v>0.006263565256886062</v>
+      </c>
+      <c r="O4" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="n">
+        <v>0.01614513397216797</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0.00178267567768683</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.002362203598022461</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0.0003489465979236583</v>
+      </c>
+      <c r="F5" t="n">
+        <v>1</v>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>{'C': 1}</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>0.9523809523809523</v>
+      </c>
+      <c r="I5" t="n">
+        <v>0.9365079365079365</v>
+      </c>
+      <c r="J5" t="n">
+        <v>0.9516129032258065</v>
+      </c>
+      <c r="K5" t="n">
+        <v>0.9516129032258065</v>
+      </c>
+      <c r="L5" t="n">
+        <v>0.9354838709677419</v>
+      </c>
+      <c r="M5" t="n">
+        <v>0.9455197132616486</v>
+      </c>
+      <c r="N5" t="n">
+        <v>0.007787949421225144</v>
+      </c>
+      <c r="O5" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="n">
+        <v>0.03472652435302735</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0.004501039629665382</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.002731609344482422</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0.0006469311319883079</v>
+      </c>
+      <c r="F6" t="n">
+        <v>10</v>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>{'C': 10}</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>0.9523809523809523</v>
+      </c>
+      <c r="I6" t="n">
+        <v>0.9365079365079365</v>
+      </c>
+      <c r="J6" t="n">
+        <v>0.9032258064516129</v>
+      </c>
+      <c r="K6" t="n">
+        <v>0.9193548387096774</v>
+      </c>
+      <c r="L6" t="n">
+        <v>0.9193548387096774</v>
+      </c>
+      <c r="M6" t="n">
+        <v>0.9261648745519713</v>
+      </c>
+      <c r="N6" t="n">
+        <v>0.01681199386759145</v>
+      </c>
+      <c r="O6" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="n">
+        <v>0.09477367401123046</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0.02173907736220378</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0.002976322174072266</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0.0005514535581655463</v>
+      </c>
+      <c r="F7" t="n">
+        <v>1000</v>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>{'C': 1000}</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>0.9523809523809523</v>
+      </c>
+      <c r="I7" t="n">
+        <v>0.8888888888888888</v>
+      </c>
+      <c r="J7" t="n">
+        <v>0.8870967741935484</v>
+      </c>
+      <c r="K7" t="n">
+        <v>0.8870967741935484</v>
+      </c>
+      <c r="L7" t="n">
+        <v>0.9032258064516129</v>
+      </c>
+      <c r="M7" t="n">
+        <v>0.9037378392217101</v>
+      </c>
+      <c r="N7" t="n">
+        <v>0.02506294496626486</v>
+      </c>
+      <c r="O7" t="n">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:O7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>mean_fit_time</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>std_fit_time</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>mean_score_time</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>std_score_time</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>param_C</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>params</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>split0_test_score</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>split1_test_score</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>split2_test_score</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>split3_test_score</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>split4_test_score</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>mean_test_score</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>std_test_score</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
+        <is>
+          <t>rank_test_score</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="n">
+        <v>0.008373785018920898</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0.001831316950264985</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.002861595153808594</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0.001212965055837037</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>{'C': 0.001}</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>0.9214285714285714</v>
+      </c>
+      <c r="I2" t="n">
+        <v>0.9214285714285714</v>
+      </c>
+      <c r="J2" t="n">
+        <v>0.9214285714285714</v>
+      </c>
+      <c r="K2" t="n">
+        <v>0.9142857142857143</v>
+      </c>
+      <c r="L2" t="n">
+        <v>0.9142857142857143</v>
+      </c>
+      <c r="M2" t="n">
+        <v>0.9185714285714285</v>
+      </c>
+      <c r="N2" t="n">
+        <v>0.003499271061118814</v>
+      </c>
+      <c r="O2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="n">
+        <v>0.00866546630859375</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0.001866437699187203</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.002449321746826172</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0.0005095772312817768</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>{'C': 0.01}</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>0.9214285714285714</v>
+      </c>
+      <c r="I3" t="n">
+        <v>0.9214285714285714</v>
+      </c>
+      <c r="J3" t="n">
+        <v>0.9214285714285714</v>
+      </c>
+      <c r="K3" t="n">
+        <v>0.9142857142857143</v>
+      </c>
+      <c r="L3" t="n">
+        <v>0.9142857142857143</v>
+      </c>
+      <c r="M3" t="n">
+        <v>0.9185714285714285</v>
+      </c>
+      <c r="N3" t="n">
+        <v>0.003499271061118814</v>
+      </c>
+      <c r="O3" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="n">
+        <v>0.01322822570800781</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0.002690370913913051</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.002590465545654297</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0.0005171433500243643</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>{'C': 0.1}</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>0.9214285714285714</v>
+      </c>
+      <c r="I4" t="n">
+        <v>0.9214285714285714</v>
+      </c>
+      <c r="J4" t="n">
+        <v>0.9214285714285714</v>
+      </c>
+      <c r="K4" t="n">
+        <v>0.9142857142857143</v>
+      </c>
+      <c r="L4" t="n">
+        <v>0.9142857142857143</v>
+      </c>
+      <c r="M4" t="n">
+        <v>0.9185714285714285</v>
+      </c>
+      <c r="N4" t="n">
+        <v>0.003499271061118814</v>
+      </c>
+      <c r="O4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="n">
+        <v>0.0258385181427002</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0.001507936688278325</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.002505683898925781</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0.0005344569807712451</v>
+      </c>
+      <c r="F5" t="n">
+        <v>1</v>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>{'C': 1}</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>0.9214285714285714</v>
+      </c>
+      <c r="I5" t="n">
+        <v>0.9285714285714286</v>
+      </c>
+      <c r="J5" t="n">
+        <v>0.9285714285714286</v>
+      </c>
+      <c r="K5" t="n">
+        <v>0.8928571428571429</v>
+      </c>
+      <c r="L5" t="n">
+        <v>0.9142857142857143</v>
+      </c>
+      <c r="M5" t="n">
+        <v>0.917142857142857</v>
+      </c>
+      <c r="N5" t="n">
+        <v>0.01324802642213671</v>
+      </c>
+      <c r="O5" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="n">
+        <v>0.05329971313476563</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0.00278634211362805</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.002586603164672852</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0.0005498937298274796</v>
+      </c>
+      <c r="F6" t="n">
+        <v>10</v>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>{'C': 10}</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>0.9285714285714286</v>
+      </c>
+      <c r="I6" t="n">
+        <v>0.8928571428571429</v>
+      </c>
+      <c r="J6" t="n">
+        <v>0.9142857142857143</v>
+      </c>
+      <c r="K6" t="n">
+        <v>0.8785714285714286</v>
+      </c>
+      <c r="L6" t="n">
+        <v>0.9142857142857143</v>
+      </c>
+      <c r="M6" t="n">
+        <v>0.9057142857142857</v>
+      </c>
+      <c r="N6" t="n">
+        <v>0.01772810520855837</v>
+      </c>
+      <c r="O6" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="n">
+        <v>0.2667964458465576</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0.03585967950563796</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0.002514934539794922</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0.0003709474552374712</v>
+      </c>
+      <c r="F7" t="n">
+        <v>1000</v>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>{'C': 1000}</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>0.8928571428571429</v>
+      </c>
+      <c r="I7" t="n">
+        <v>0.8571428571428571</v>
+      </c>
+      <c r="J7" t="n">
+        <v>0.9214285714285714</v>
+      </c>
+      <c r="K7" t="n">
+        <v>0.8714285714285714</v>
+      </c>
+      <c r="L7" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="M7" t="n">
+        <v>0.8885714285714286</v>
+      </c>
+      <c r="N7" t="n">
+        <v>0.02240626734479732</v>
+      </c>
+      <c r="O7" t="n">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:O7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>mean_fit_time</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>std_fit_time</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>mean_score_time</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>std_score_time</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>param_C</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>params</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>split0_test_score</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>split1_test_score</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>split2_test_score</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>split3_test_score</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>split4_test_score</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>mean_test_score</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>std_test_score</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
+        <is>
+          <t>rank_test_score</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="n">
+        <v>0.007258081436157226</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0.00136490457046021</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.002783536911010742</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0.000808726532208378</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>{'C': 0.001}</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>0.4347826086956522</v>
+      </c>
+      <c r="I2" t="n">
+        <v>0.4782608695652174</v>
+      </c>
+      <c r="J2" t="n">
+        <v>0.6521739130434783</v>
+      </c>
+      <c r="K2" t="n">
+        <v>0.5652173913043478</v>
+      </c>
+      <c r="L2" t="n">
+        <v>0.8636363636363636</v>
+      </c>
+      <c r="M2" t="n">
+        <v>0.598814229249012</v>
+      </c>
+      <c r="N2" t="n">
+        <v>0.1520172696165865</v>
+      </c>
+      <c r="O2" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="n">
+        <v>0.006953573226928711</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0.001108704704884082</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.002340269088745117</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0.000522111112586587</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>{'C': 0.01}</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>0.8260869565217391</v>
+      </c>
+      <c r="I3" t="n">
+        <v>0.9130434782608695</v>
+      </c>
+      <c r="J3" t="n">
+        <v>0.7391304347826086</v>
+      </c>
+      <c r="K3" t="n">
+        <v>0.9565217391304348</v>
+      </c>
+      <c r="L3" t="n">
+        <v>0.8636363636363636</v>
+      </c>
+      <c r="M3" t="n">
+        <v>0.8596837944664031</v>
+      </c>
+      <c r="N3" t="n">
+        <v>0.07470251165171511</v>
+      </c>
+      <c r="O3" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="n">
+        <v>0.007900285720825195</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0.0009810677116213039</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.00225667953491211</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0.0002752416840382625</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>{'C': 0.1}</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>0.8695652173913043</v>
+      </c>
+      <c r="I4" t="n">
+        <v>0.8695652173913043</v>
+      </c>
+      <c r="J4" t="n">
+        <v>0.7391304347826086</v>
+      </c>
+      <c r="K4" t="n">
+        <v>0.9130434782608695</v>
+      </c>
+      <c r="L4" t="n">
+        <v>0.8181818181818182</v>
+      </c>
+      <c r="M4" t="n">
+        <v>0.8418972332015811</v>
+      </c>
+      <c r="N4" t="n">
+        <v>0.05952521927910418</v>
+      </c>
+      <c r="O4" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="n">
+        <v>0.01173315048217773</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0.0004944160892650592</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.002168083190917969</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0.0001290719534031635</v>
+      </c>
+      <c r="F5" t="n">
+        <v>1</v>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>{'C': 1}</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>0.8695652173913043</v>
+      </c>
+      <c r="I5" t="n">
+        <v>0.9130434782608695</v>
+      </c>
+      <c r="J5" t="n">
+        <v>0.7391304347826086</v>
+      </c>
+      <c r="K5" t="n">
+        <v>0.8695652173913043</v>
+      </c>
+      <c r="L5" t="n">
+        <v>0.8636363636363636</v>
+      </c>
+      <c r="M5" t="n">
+        <v>0.8509881422924901</v>
+      </c>
+      <c r="N5" t="n">
+        <v>0.05867402217869884</v>
+      </c>
+      <c r="O5" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="n">
+        <v>0.02436861991882324</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0.0019877997643725</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.00228118896484375</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0.0001321045484125902</v>
+      </c>
+      <c r="F6" t="n">
+        <v>10</v>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>{'C': 10}</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>0.8260869565217391</v>
+      </c>
+      <c r="I6" t="n">
+        <v>0.8695652173913043</v>
+      </c>
+      <c r="J6" t="n">
+        <v>0.7391304347826086</v>
+      </c>
+      <c r="K6" t="n">
+        <v>0.9130434782608695</v>
+      </c>
+      <c r="L6" t="n">
+        <v>0.7727272727272727</v>
+      </c>
+      <c r="M6" t="n">
+        <v>0.824110671936759</v>
+      </c>
+      <c r="N6" t="n">
+        <v>0.06299358676090604</v>
+      </c>
+      <c r="O6" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="n">
+        <v>0.1073912620544434</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0.01624710848162394</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0.002327632904052734</v>
+      </c>
+      <c r="E7" t="n">
+        <v>2.627515529345742e-05</v>
+      </c>
+      <c r="F7" t="n">
+        <v>1000</v>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>{'C': 1000}</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>0.7826086956521739</v>
+      </c>
+      <c r="I7" t="n">
+        <v>0.7826086956521739</v>
+      </c>
+      <c r="J7" t="n">
+        <v>0.6086956521739131</v>
+      </c>
+      <c r="K7" t="n">
+        <v>0.7826086956521739</v>
+      </c>
+      <c r="L7" t="n">
+        <v>0.6363636363636364</v>
+      </c>
+      <c r="M7" t="n">
+        <v>0.7185770750988142</v>
+      </c>
+      <c r="N7" t="n">
+        <v>0.078908962614816</v>
+      </c>
+      <c r="O7" t="n">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:O7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>mean_fit_time</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>std_fit_time</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>mean_score_time</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>std_score_time</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>param_C</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>params</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>split0_test_score</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>split1_test_score</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>split2_test_score</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>split3_test_score</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>split4_test_score</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>mean_test_score</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>std_test_score</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
+        <is>
+          <t>rank_test_score</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="n">
+        <v>0.008416986465454102</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0.001614140404234937</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.003034353256225586</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0.001298239398716441</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>{'C': 0.001}</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>0.9024390243902439</v>
+      </c>
+      <c r="I2" t="n">
+        <v>0.9098360655737705</v>
+      </c>
+      <c r="J2" t="n">
+        <v>0.9098360655737705</v>
+      </c>
+      <c r="K2" t="n">
+        <v>0.9098360655737705</v>
+      </c>
+      <c r="L2" t="n">
+        <v>0.9016393442622951</v>
+      </c>
+      <c r="M2" t="n">
+        <v>0.9067173130747703</v>
+      </c>
+      <c r="N2" t="n">
+        <v>0.003828037951187982</v>
+      </c>
+      <c r="O2" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="n">
+        <v>0.008805608749389649</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0.002103033282873247</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.002516269683837891</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0.0005183560966423716</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>{'C': 0.01}</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>0.9024390243902439</v>
+      </c>
+      <c r="I3" t="n">
+        <v>0.9098360655737705</v>
+      </c>
+      <c r="J3" t="n">
+        <v>0.9098360655737705</v>
+      </c>
+      <c r="K3" t="n">
+        <v>0.9098360655737705</v>
+      </c>
+      <c r="L3" t="n">
+        <v>0.9016393442622951</v>
+      </c>
+      <c r="M3" t="n">
+        <v>0.9067173130747703</v>
+      </c>
+      <c r="N3" t="n">
+        <v>0.003828037951187982</v>
+      </c>
+      <c r="O3" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="n">
+        <v>0.01177153587341309</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0.001470235765596058</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.002423238754272461</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0.000462794976368811</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>{'C': 0.1}</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>0.9024390243902439</v>
+      </c>
+      <c r="I4" t="n">
+        <v>0.9098360655737705</v>
+      </c>
+      <c r="J4" t="n">
+        <v>0.9098360655737705</v>
+      </c>
+      <c r="K4" t="n">
+        <v>0.9098360655737705</v>
+      </c>
+      <c r="L4" t="n">
+        <v>0.9016393442622951</v>
+      </c>
+      <c r="M4" t="n">
+        <v>0.9067173130747703</v>
+      </c>
+      <c r="N4" t="n">
+        <v>0.003828037951187982</v>
+      </c>
+      <c r="O4" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="n">
+        <v>0.02445821762084961</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0.003446755517529594</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.002290058135986328</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0.0001256285750413308</v>
+      </c>
+      <c r="F5" t="n">
+        <v>1</v>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>{'C': 1}</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>0.9349593495934959</v>
+      </c>
+      <c r="I5" t="n">
+        <v>0.9262295081967213</v>
+      </c>
+      <c r="J5" t="n">
+        <v>0.9098360655737705</v>
+      </c>
+      <c r="K5" t="n">
+        <v>0.9098360655737705</v>
+      </c>
+      <c r="L5" t="n">
+        <v>0.9262295081967213</v>
+      </c>
+      <c r="M5" t="n">
+        <v>0.9214180994268959</v>
+      </c>
+      <c r="N5" t="n">
+        <v>0.00997949679217381</v>
+      </c>
+      <c r="O5" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="n">
+        <v>0.04927091598510742</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0.002765945256610972</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.002318763732910156</v>
+      </c>
+      <c r="E6" t="n">
+        <v>6.945106609095802e-05</v>
+      </c>
+      <c r="F6" t="n">
+        <v>10</v>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>{'C': 10}</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>0.9349593495934959</v>
+      </c>
+      <c r="I6" t="n">
+        <v>0.9016393442622951</v>
+      </c>
+      <c r="J6" t="n">
+        <v>0.9016393442622951</v>
+      </c>
+      <c r="K6" t="n">
+        <v>0.8934426229508197</v>
+      </c>
+      <c r="L6" t="n">
+        <v>0.9180327868852459</v>
+      </c>
+      <c r="M6" t="n">
+        <v>0.9099426895908304</v>
+      </c>
+      <c r="N6" t="n">
+        <v>0.01484200955623387</v>
+      </c>
+      <c r="O6" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="n">
+        <v>0.2199093341827393</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0.03423040248068987</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0.002464437484741211</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0.0004888819700341865</v>
+      </c>
+      <c r="F7" t="n">
+        <v>1000</v>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>{'C': 1000}</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>0.9024390243902439</v>
+      </c>
+      <c r="I7" t="n">
+        <v>0.8770491803278688</v>
+      </c>
+      <c r="J7" t="n">
+        <v>0.8770491803278688</v>
+      </c>
+      <c r="K7" t="n">
+        <v>0.860655737704918</v>
+      </c>
+      <c r="L7" t="n">
+        <v>0.9016393442622951</v>
+      </c>
+      <c r="M7" t="n">
+        <v>0.883766493402639</v>
+      </c>
+      <c r="N7" t="n">
+        <v>0.01607764802540021</v>
+      </c>
+      <c r="O7" t="n">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:O7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>mean_fit_time</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>std_fit_time</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>mean_score_time</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>std_score_time</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>param_C</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>params</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>split0_test_score</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>split1_test_score</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>split2_test_score</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>split3_test_score</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>split4_test_score</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>mean_test_score</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>std_test_score</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
+        <is>
+          <t>rank_test_score</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="n">
+        <v>0.008188438415527344</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0.001861598039569815</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.002736330032348633</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0.00106025490030096</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>{'C': 0.001}</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>0.8932038834951457</v>
+      </c>
+      <c r="I2" t="n">
+        <v>0.883495145631068</v>
+      </c>
+      <c r="J2" t="n">
+        <v>0.883495145631068</v>
+      </c>
+      <c r="K2" t="n">
+        <v>0.8921568627450981</v>
+      </c>
+      <c r="L2" t="n">
+        <v>0.8921568627450981</v>
+      </c>
+      <c r="M2" t="n">
+        <v>0.8889015800494956</v>
+      </c>
+      <c r="N2" t="n">
+        <v>0.004430860233330486</v>
+      </c>
+      <c r="O2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="n">
+        <v>0.00801844596862793</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0.001144351614060575</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.002404212951660156</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0.0005391605359817088</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>{'C': 0.01}</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>0.8932038834951457</v>
+      </c>
+      <c r="I3" t="n">
+        <v>0.883495145631068</v>
+      </c>
+      <c r="J3" t="n">
+        <v>0.883495145631068</v>
+      </c>
+      <c r="K3" t="n">
+        <v>0.8921568627450981</v>
+      </c>
+      <c r="L3" t="n">
+        <v>0.8921568627450981</v>
+      </c>
+      <c r="M3" t="n">
+        <v>0.8889015800494956</v>
+      </c>
+      <c r="N3" t="n">
+        <v>0.004430860233330486</v>
+      </c>
+      <c r="O3" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="n">
+        <v>0.01153707504272461</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0.002132246957837376</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.002675342559814453</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0.0006165759169117927</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>{'C': 0.1}</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>0.8932038834951457</v>
+      </c>
+      <c r="I4" t="n">
+        <v>0.883495145631068</v>
+      </c>
+      <c r="J4" t="n">
+        <v>0.883495145631068</v>
+      </c>
+      <c r="K4" t="n">
+        <v>0.8921568627450981</v>
+      </c>
+      <c r="L4" t="n">
+        <v>0.8921568627450981</v>
+      </c>
+      <c r="M4" t="n">
+        <v>0.8889015800494956</v>
+      </c>
+      <c r="N4" t="n">
+        <v>0.004430860233330486</v>
+      </c>
+      <c r="O4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="n">
+        <v>0.0225766658782959</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0.002485877530021547</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.002139568328857422</v>
+      </c>
+      <c r="E5" t="n">
+        <v>3.841129755620256e-05</v>
+      </c>
+      <c r="F5" t="n">
+        <v>1</v>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>{'C': 1}</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>0.9029126213592233</v>
+      </c>
+      <c r="I5" t="n">
+        <v>0.883495145631068</v>
+      </c>
+      <c r="J5" t="n">
+        <v>0.8640776699029126</v>
+      </c>
+      <c r="K5" t="n">
+        <v>0.8627450980392157</v>
+      </c>
+      <c r="L5" t="n">
+        <v>0.8823529411764706</v>
+      </c>
+      <c r="M5" t="n">
+        <v>0.879116695221778</v>
+      </c>
+      <c r="N5" t="n">
+        <v>0.01476544407360772</v>
+      </c>
+      <c r="O5" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="n">
+        <v>0.04953279495239258</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0.006174122021357479</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.003074884414672852</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0.0004540340660389027</v>
+      </c>
+      <c r="F6" t="n">
+        <v>10</v>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>{'C': 10}</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>0.8932038834951457</v>
+      </c>
+      <c r="I6" t="n">
+        <v>0.883495145631068</v>
+      </c>
+      <c r="J6" t="n">
+        <v>0.8543689320388349</v>
+      </c>
+      <c r="K6" t="n">
+        <v>0.8431372549019608</v>
+      </c>
+      <c r="L6" t="n">
+        <v>0.8627450980392157</v>
+      </c>
+      <c r="M6" t="n">
+        <v>0.8673900628212451</v>
+      </c>
+      <c r="N6" t="n">
+        <v>0.01846646293551732</v>
+      </c>
+      <c r="O6" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="n">
+        <v>0.2543573379516602</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0.01389991781881033</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0.002199411392211914</v>
+      </c>
+      <c r="E7" t="n">
+        <v>1.743490369058737e-05</v>
+      </c>
+      <c r="F7" t="n">
+        <v>1000</v>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>{'C': 1000}</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>0.8543689320388349</v>
+      </c>
+      <c r="I7" t="n">
+        <v>0.8349514563106796</v>
+      </c>
+      <c r="J7" t="n">
+        <v>0.8446601941747572</v>
+      </c>
+      <c r="K7" t="n">
+        <v>0.803921568627451</v>
+      </c>
+      <c r="L7" t="n">
+        <v>0.8529411764705882</v>
+      </c>
+      <c r="M7" t="n">
+        <v>0.8381686655244621</v>
+      </c>
+      <c r="N7" t="n">
+        <v>0.0184717608256833</v>
+      </c>
+      <c r="O7" t="n">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:O7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>mean_fit_time</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>std_fit_time</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>mean_score_time</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>std_score_time</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>param_C</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>params</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>split0_test_score</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>split1_test_score</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>split2_test_score</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>split3_test_score</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>split4_test_score</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>mean_test_score</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>std_test_score</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
+        <is>
+          <t>rank_test_score</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="n">
+        <v>0.007539606094360352</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0.002169791940171506</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.002657842636108398</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0.0006590352442391135</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>{'C': 0.001}</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>0.8070175438596491</v>
+      </c>
+      <c r="I2" t="n">
+        <v>0.8070175438596491</v>
+      </c>
+      <c r="J2" t="n">
+        <v>0.8070175438596491</v>
+      </c>
+      <c r="K2" t="n">
+        <v>0.7894736842105263</v>
+      </c>
+      <c r="L2" t="n">
+        <v>0.7894736842105263</v>
+      </c>
+      <c r="M2" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="N2" t="n">
+        <v>0.008594700851870774</v>
+      </c>
+      <c r="O2" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="n">
+        <v>0.008686161041259766</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0.002014684239798472</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.002353096008300781</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0.0004537385715408722</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>{'C': 0.01}</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>0.8070175438596491</v>
+      </c>
+      <c r="I3" t="n">
+        <v>0.8070175438596491</v>
+      </c>
+      <c r="J3" t="n">
+        <v>0.8070175438596491</v>
+      </c>
+      <c r="K3" t="n">
+        <v>0.7894736842105263</v>
+      </c>
+      <c r="L3" t="n">
+        <v>0.7894736842105263</v>
+      </c>
+      <c r="M3" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="N3" t="n">
+        <v>0.008594700851870774</v>
+      </c>
+      <c r="O3" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="n">
+        <v>0.0111574649810791</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0.001446537649888737</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.002357149124145508</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0.0004513247102484224</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>{'C': 0.1}</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>0.8245614035087719</v>
+      </c>
+      <c r="I4" t="n">
+        <v>0.8070175438596491</v>
+      </c>
+      <c r="J4" t="n">
+        <v>0.8070175438596491</v>
+      </c>
+      <c r="K4" t="n">
+        <v>0.7894736842105263</v>
+      </c>
+      <c r="L4" t="n">
+        <v>0.7894736842105263</v>
+      </c>
+      <c r="M4" t="n">
+        <v>0.8035087719298246</v>
+      </c>
+      <c r="N4" t="n">
+        <v>0.01312862240973312</v>
+      </c>
+      <c r="O4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="n">
+        <v>0.01931090354919434</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0.002609706009391266</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.002508354187011719</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0.0004919991703016954</v>
+      </c>
+      <c r="F5" t="n">
+        <v>1</v>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>{'C': 1}</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>0.8070175438596491</v>
+      </c>
+      <c r="I5" t="n">
+        <v>0.8070175438596491</v>
+      </c>
+      <c r="J5" t="n">
+        <v>0.7543859649122807</v>
+      </c>
+      <c r="K5" t="n">
+        <v>0.8070175438596491</v>
+      </c>
+      <c r="L5" t="n">
+        <v>0.8421052631578947</v>
+      </c>
+      <c r="M5" t="n">
+        <v>0.8035087719298245</v>
+      </c>
+      <c r="N5" t="n">
+        <v>0.02807017543859647</v>
+      </c>
+      <c r="O5" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="n">
+        <v>0.04415245056152343</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0.002874258687861794</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.002162885665893555</v>
+      </c>
+      <c r="E6" t="n">
+        <v>1.027957401478717e-05</v>
+      </c>
+      <c r="F6" t="n">
+        <v>10</v>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>{'C': 10}</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>0.8070175438596491</v>
+      </c>
+      <c r="I6" t="n">
+        <v>0.7543859649122807</v>
+      </c>
+      <c r="J6" t="n">
+        <v>0.8245614035087719</v>
+      </c>
+      <c r="K6" t="n">
+        <v>0.7894736842105263</v>
+      </c>
+      <c r="L6" t="n">
+        <v>0.7894736842105263</v>
+      </c>
+      <c r="M6" t="n">
+        <v>0.7929824561403509</v>
+      </c>
+      <c r="N6" t="n">
+        <v>0.02327455993231859</v>
+      </c>
+      <c r="O6" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="n">
+        <v>0.2297695159912109</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0.01746400557920874</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0.002202892303466797</v>
+      </c>
+      <c r="E7" t="n">
+        <v>4.996757446312127e-05</v>
+      </c>
+      <c r="F7" t="n">
+        <v>1000</v>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>{'C': 1000}</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>0.7543859649122807</v>
+      </c>
+      <c r="I7" t="n">
+        <v>0.7719298245614035</v>
+      </c>
+      <c r="J7" t="n">
+        <v>0.7894736842105263</v>
+      </c>
+      <c r="K7" t="n">
+        <v>0.7192982456140351</v>
+      </c>
+      <c r="L7" t="n">
+        <v>0.8070175438596491</v>
+      </c>
+      <c r="M7" t="n">
+        <v>0.7684210526315789</v>
+      </c>
+      <c r="N7" t="n">
+        <v>0.03018359742821973</v>
+      </c>
+      <c r="O7" t="n">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>